--- a/data/using/Research Data - Demographics.xlsx
+++ b/data/using/Research Data - Demographics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ross\Work\Japan\Drones\Code\systems_thinking_game_evolved\data\using\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF81DCE2-9C9B-44D3-9F4F-2E5BCF301742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE05C95-B416-4ABD-A455-0EE29D1C9F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="720" windowWidth="22890" windowHeight="14085" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="1005" windowWidth="22890" windowHeight="14085" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,25 +25,26 @@
     <sheet name="Sheet13" sheetId="15" r:id="rId10"/>
     <sheet name="Demographics" sheetId="2" r:id="rId11"/>
     <sheet name="LearningStyles" sheetId="14" r:id="rId12"/>
+    <sheet name="Self-Assessments" sheetId="16" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
-    <pivotCache cacheId="1" r:id="rId14"/>
-    <pivotCache cacheId="2" r:id="rId15"/>
-    <pivotCache cacheId="40" r:id="rId16"/>
-    <pivotCache cacheId="4" r:id="rId17"/>
-    <pivotCache cacheId="13" r:id="rId18"/>
-    <pivotCache cacheId="49" r:id="rId19"/>
-    <pivotCache cacheId="58" r:id="rId20"/>
-    <pivotCache cacheId="67" r:id="rId21"/>
-    <pivotCache cacheId="82" r:id="rId22"/>
+    <pivotCache cacheId="39" r:id="rId14"/>
+    <pivotCache cacheId="40" r:id="rId15"/>
+    <pivotCache cacheId="41" r:id="rId16"/>
+    <pivotCache cacheId="42" r:id="rId17"/>
+    <pivotCache cacheId="43" r:id="rId18"/>
+    <pivotCache cacheId="44" r:id="rId19"/>
+    <pivotCache cacheId="45" r:id="rId20"/>
+    <pivotCache cacheId="46" r:id="rId21"/>
+    <pivotCache cacheId="47" r:id="rId22"/>
+    <pivotCache cacheId="48" r:id="rId23"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="258">
   <si>
     <t>ID</t>
   </si>
@@ -836,6 +837,93 @@
   <si>
     <t>Count of All</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Ambrosio Valencia-Romero</t>
+  </si>
+  <si>
+    <t>Meriam Chaal</t>
+  </si>
+  <si>
+    <t>Anon</t>
+  </si>
+  <si>
+    <t>Ari Syahidul Shidiq</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Cecilia Haskins</t>
+  </si>
+  <si>
+    <t>Ed Dooley</t>
+  </si>
+  <si>
+    <t>Jessica Driscoll</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>mohd abualtaher</t>
+  </si>
+  <si>
+    <t>Moi!</t>
+  </si>
+  <si>
+    <t>Nikhil Joshi</t>
+  </si>
+  <si>
+    <t>Ralph T</t>
+  </si>
+  <si>
+    <t>Robert Miller</t>
+  </si>
+  <si>
+    <t>Sarah Church</t>
+  </si>
+  <si>
+    <t>ST3</t>
+  </si>
+  <si>
+    <t>ST2</t>
+  </si>
+  <si>
+    <t>ST1</t>
+  </si>
+  <si>
+    <t>ST1 (outlier removed)</t>
+  </si>
 </sst>
 </file>
 
@@ -910,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,6 +1049,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,7 +1627,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1842,6 +1935,304 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Self-Assessment Rating</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Self-Assessments'!$V$2:$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ST3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ST2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ST1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ST1 (outlier removed)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Self-Assessments'!$W$2:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87B7-444C-AA6A-69B1116A17A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="160"/>
+        <c:axId val="658623304"/>
+        <c:axId val="323428936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658623304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323428936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="323428936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658623304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4183,7 +4574,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4561,7 +4954,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4950,7 +5345,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5356,7 +5753,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5690,6 +6089,33 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -6456,6 +6882,511 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11108,6 +12039,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13BE4AD-7C1D-4F0D-89D1-512A98185D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -23148,7 +24120,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{274FFEB5-A0A6-4CCD-8D69-3132564276C3}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{274FFEB5-A0A6-4CCD-8D69-3132564276C3}" name="PivotTable5" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -23487,7 +24459,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBFBC482-CE35-4909-BA52-81FDE3F2BD1B}" name="PivotTable45" cacheId="82" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBFBC482-CE35-4909-BA52-81FDE3F2BD1B}" name="PivotTable45" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -23630,7 +24602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D1890A7-1B02-4E86-B0C5-0CFD786DD3F7}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D1890A7-1B02-4E86-B0C5-0CFD786DD3F7}" name="PivotTable10" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -23969,7 +24941,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A73A78-89FA-48C1-BA41-F7676CAF7343}" name="PivotTable19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A73A78-89FA-48C1-BA41-F7676CAF7343}" name="PivotTable19" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24287,7 +25259,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{636448EE-B64B-4B98-8980-2BCE036364EE}" name="PivotTable32" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{636448EE-B64B-4B98-8980-2BCE036364EE}" name="PivotTable32" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24597,7 +25569,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2919D8A-C3D6-4BDA-AE82-B3B2391BD27F}" name="PivotTable37" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2919D8A-C3D6-4BDA-AE82-B3B2391BD27F}" name="PivotTable37" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24915,7 +25887,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F288E6E9-6F6A-4998-9089-843F2A2BD5DC}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F288E6E9-6F6A-4998-9089-843F2A2BD5DC}" name="PivotTable5" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25213,7 +26185,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7425AA38-723B-4816-8324-C2636460AF24}" name="PivotTable26" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7425AA38-723B-4816-8324-C2636460AF24}" name="PivotTable26" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25519,7 +26491,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E014D2BF-5156-4E85-96F0-A3A1C4874682}" name="PivotTable31" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E014D2BF-5156-4E85-96F0-A3A1C4874682}" name="PivotTable31" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25832,7 +26804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5EB3A3A-2249-4AC0-AD53-ECDE4A8D26F6}" name="PivotTable36" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5EB3A3A-2249-4AC0-AD53-ECDE4A8D26F6}" name="PivotTable36" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26691,9 +27663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB26" sqref="AB26"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30631,6 +31603,1261 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14E5761-F161-4F5D-8602-A3BCB3DB1758}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="4" max="19" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>61046</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2">
+        <v>3</v>
+      </c>
+      <c r="S2" s="2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <f>SUM(D2:S2)</f>
+        <v>47</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="W2" s="17">
+        <f>ROUND(SUM(T2:T7)/16/6, 2)</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>84924</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>3</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T18" si="0">SUM(D3:S3)</f>
+        <v>52</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="W3" s="17">
+        <f>ROUND(SUM(T8:T11)/16/4, 2)</f>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>374328</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="W4">
+        <f>ROUND(SUM(T12:T18)/16/7, 2)</f>
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>586798</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="W5">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>144707</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>865260</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>942575</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>3</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>753307</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>3</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>906861</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2">
+        <v>3</v>
+      </c>
+      <c r="S10" s="2">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>993807</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>739187</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2">
+        <v>3</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>116420</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>930512</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>3</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>932101</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4</v>
+      </c>
+      <c r="P15" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4</v>
+      </c>
+      <c r="R15" s="2">
+        <v>4</v>
+      </c>
+      <c r="S15" s="2">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>103194</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2">
+        <v>3</v>
+      </c>
+      <c r="S16" s="2">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>807290</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>2</v>
+      </c>
+      <c r="S17" s="2">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>690179</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
+        <v>2</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U19" s="1"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U20" s="1"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U21" s="1"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="1"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U23" s="1"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U24" s="1"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U25" s="1"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U26" s="1"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U27" s="1"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U28" s="1"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U29" s="1"/>
+      <c r="V29" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S18">
+    <sortCondition descending="1" ref="C2:C18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F02FD7E-F6E7-486E-8B70-CD589972D38D}">
   <dimension ref="A3:B18"/>

--- a/data/using/Research Data - Demographics.xlsx
+++ b/data/using/Research Data - Demographics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ross\Work\Japan\Drones\Code\systems_thinking_game_evolved\data\using\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE05C95-B416-4ABD-A455-0EE29D1C9F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AD16C4-2827-41E7-A64A-CA0F2C979929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1005" windowWidth="22890" windowHeight="14085" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="1800" windowWidth="22740" windowHeight="12540" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -29,22 +29,22 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId14"/>
-    <pivotCache cacheId="40" r:id="rId15"/>
-    <pivotCache cacheId="41" r:id="rId16"/>
-    <pivotCache cacheId="42" r:id="rId17"/>
-    <pivotCache cacheId="43" r:id="rId18"/>
-    <pivotCache cacheId="44" r:id="rId19"/>
-    <pivotCache cacheId="45" r:id="rId20"/>
-    <pivotCache cacheId="46" r:id="rId21"/>
-    <pivotCache cacheId="47" r:id="rId22"/>
-    <pivotCache cacheId="48" r:id="rId23"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId15"/>
+    <pivotCache cacheId="2" r:id="rId16"/>
+    <pivotCache cacheId="3" r:id="rId17"/>
+    <pivotCache cacheId="4" r:id="rId18"/>
+    <pivotCache cacheId="5" r:id="rId19"/>
+    <pivotCache cacheId="6" r:id="rId20"/>
+    <pivotCache cacheId="7" r:id="rId21"/>
+    <pivotCache cacheId="8" r:id="rId22"/>
+    <pivotCache cacheId="9" r:id="rId23"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="271">
   <si>
     <t>ID</t>
   </si>
@@ -649,12 +649,6 @@
     <t>4.4</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
     <t>Illinois</t>
   </si>
   <si>
@@ -924,18 +918,69 @@
   <si>
     <t>ST1 (outlier removed)</t>
   </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>CQ1</t>
+  </si>
+  <si>
+    <t>CQ2</t>
+  </si>
+  <si>
+    <t>CQA</t>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>DP2</t>
+  </si>
+  <si>
+    <t>DPA</t>
+  </si>
+  <si>
+    <t>1.2R</t>
+  </si>
+  <si>
+    <t>4.2R</t>
+  </si>
+  <si>
+    <t>4.3R</t>
+  </si>
+  <si>
+    <t>Stuart Vanweele</t>
+  </si>
+  <si>
+    <t>Chris Guglielmo</t>
+  </si>
+  <si>
+    <t>Lakerveld</t>
+  </si>
+  <si>
+    <t>Chouser</t>
+  </si>
+  <si>
+    <t>STXR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -948,7 +993,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -994,11 +1039,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,9 +1074,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1052,6 +1105,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12411,7 +12494,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.545536342594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{B312B17F-5D94-4EC4-BDD3-A08B176FBC6E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AJ29" sheet="Demographics"/>
+    <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
   <cacheFields count="34">
     <cacheField name="ID" numFmtId="0">
@@ -12598,7 +12681,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.548378587962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{F61856C3-05F5-426A-A35F-312B676C6614}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AJ29" sheet="Demographics"/>
+    <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
   <cacheFields count="34">
     <cacheField name="ID" numFmtId="0">
@@ -12731,7 +12814,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.558078819442" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{9438B4D4-FE19-4022-85B1-200B3584C0B2}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AJ29" sheet="Demographics"/>
+    <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
   <cacheFields count="35">
     <cacheField name="ID" numFmtId="0">
@@ -12854,7 +12937,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.572364814812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{152F95DE-B692-4772-8C9F-AA859E8DC727}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AJ29" sheet="Demographics"/>
+    <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
   <cacheFields count="35">
     <cacheField name="ID" numFmtId="0">
@@ -12987,7 +13070,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.581180092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{3B25D115-533A-4BB2-9303-2BD85FB00C8B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AJ29" sheet="Demographics"/>
+    <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
   <cacheFields count="35">
     <cacheField name="ID" numFmtId="0">
@@ -13110,7 +13193,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.588939814814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{49EDA24D-B9C1-44C4-B388-CFE7DC8DA01E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AJ29" sheet="Demographics"/>
+    <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
   <cacheFields count="35">
     <cacheField name="ID" numFmtId="0">
@@ -13234,7 +13317,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.597976041667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{D4D55DC3-6933-4B15-ACC1-91591695F899}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AJ29" sheet="Demographics"/>
+    <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
   <cacheFields count="35">
     <cacheField name="ID" numFmtId="0">
@@ -13360,7 +13443,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.60828252315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{7FB9062A-E7C5-4BB6-977A-C2CC5B5E1662}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AJ29" sheet="Demographics"/>
+    <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
   <cacheFields count="36">
     <cacheField name="ID" numFmtId="0">
@@ -13489,7 +13572,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.637503703707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{269EF52C-8C92-4B98-898F-7698710BF030}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AJ29" sheet="Demographics"/>
+    <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
   <cacheFields count="36">
     <cacheField name="ID" numFmtId="0">
@@ -24120,7 +24203,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{274FFEB5-A0A6-4CCD-8D69-3132564276C3}" name="PivotTable5" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{274FFEB5-A0A6-4CCD-8D69-3132564276C3}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24459,7 +24542,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBFBC482-CE35-4909-BA52-81FDE3F2BD1B}" name="PivotTable45" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBFBC482-CE35-4909-BA52-81FDE3F2BD1B}" name="PivotTable45" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24602,7 +24685,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D1890A7-1B02-4E86-B0C5-0CFD786DD3F7}" name="PivotTable10" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D1890A7-1B02-4E86-B0C5-0CFD786DD3F7}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24941,7 +25024,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A73A78-89FA-48C1-BA41-F7676CAF7343}" name="PivotTable19" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A73A78-89FA-48C1-BA41-F7676CAF7343}" name="PivotTable19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25259,7 +25342,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{636448EE-B64B-4B98-8980-2BCE036364EE}" name="PivotTable32" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{636448EE-B64B-4B98-8980-2BCE036364EE}" name="PivotTable32" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25569,7 +25652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2919D8A-C3D6-4BDA-AE82-B3B2391BD27F}" name="PivotTable37" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2919D8A-C3D6-4BDA-AE82-B3B2391BD27F}" name="PivotTable37" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25887,7 +25970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F288E6E9-6F6A-4998-9089-843F2A2BD5DC}" name="PivotTable5" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F288E6E9-6F6A-4998-9089-843F2A2BD5DC}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26185,7 +26268,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7425AA38-723B-4816-8324-C2636460AF24}" name="PivotTable26" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7425AA38-723B-4816-8324-C2636460AF24}" name="PivotTable26" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26491,7 +26574,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E014D2BF-5156-4E85-96F0-A3A1C4874682}" name="PivotTable31" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E014D2BF-5156-4E85-96F0-A3A1C4874682}" name="PivotTable31" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26804,7 +26887,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5EB3A3A-2249-4AC0-AD53-ECDE4A8D26F6}" name="PivotTable36" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5EB3A3A-2249-4AC0-AD53-ECDE4A8D26F6}" name="PivotTable36" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -27434,26 +27517,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="10">
+        <v>166</v>
+      </c>
+      <c r="B5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -27461,7 +27544,7 @@
       <c r="A6" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -27469,7 +27552,7 @@
       <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
     </row>
@@ -27477,7 +27560,7 @@
       <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
     </row>
@@ -27485,23 +27568,23 @@
       <c r="A9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="10">
+        <v>167</v>
+      </c>
+      <c r="B10" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="10">
+        <v>168</v>
+      </c>
+      <c r="B11" s="9">
         <v>1</v>
       </c>
     </row>
@@ -27509,7 +27592,7 @@
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>11</v>
       </c>
     </row>
@@ -27517,7 +27600,7 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
     </row>
@@ -27525,7 +27608,7 @@
       <c r="A14" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
     </row>
@@ -27533,7 +27616,7 @@
       <c r="A15" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
     </row>
@@ -27541,7 +27624,7 @@
       <c r="A16" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
     </row>
@@ -27549,7 +27632,7 @@
       <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
     </row>
@@ -27557,7 +27640,7 @@
       <c r="A18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>3</v>
       </c>
     </row>
@@ -27582,74 +27665,74 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>227</v>
+      <c r="A3" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="10">
+        <v>221</v>
+      </c>
+      <c r="B4" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="10">
+        <v>222</v>
+      </c>
+      <c r="B5" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="10">
+        <v>220</v>
+      </c>
+      <c r="B6" s="9">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="10">
+        <v>219</v>
+      </c>
+      <c r="B7" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="10">
+        <v>218</v>
+      </c>
+      <c r="B8" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="10">
+        <v>223</v>
+      </c>
+      <c r="B9" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="10">
+        <v>217</v>
+      </c>
+      <c r="B10" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="10">
+        <v>224</v>
+      </c>
+      <c r="B11" s="9">
         <v>2</v>
       </c>
     </row>
@@ -27661,270 +27744,332 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AT29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B29"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" customWidth="1"/>
-    <col min="10" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="17" width="4.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
-    <col min="21" max="22" width="9.85546875" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" customWidth="1"/>
-    <col min="26" max="26" width="64.85546875" customWidth="1"/>
-    <col min="27" max="27" width="28.7109375" style="13" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" customWidth="1"/>
-    <col min="29" max="29" width="41.140625" customWidth="1"/>
-    <col min="30" max="30" width="30.5703125" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" customWidth="1"/>
-    <col min="32" max="34" width="50" customWidth="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" customWidth="1"/>
+    <col min="15" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" style="24" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" customWidth="1"/>
+    <col min="31" max="32" width="9.85546875" customWidth="1"/>
+    <col min="33" max="33" width="13" customWidth="1"/>
+    <col min="34" max="34" width="20.7109375" customWidth="1"/>
+    <col min="35" max="35" width="12.85546875" customWidth="1"/>
+    <col min="36" max="36" width="64.85546875" customWidth="1"/>
+    <col min="37" max="37" width="28.7109375" style="12" customWidth="1"/>
+    <col min="38" max="38" width="16.5703125" customWidth="1"/>
+    <col min="39" max="39" width="41.140625" customWidth="1"/>
+    <col min="40" max="40" width="30.5703125" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" customWidth="1"/>
+    <col min="42" max="44" width="50" customWidth="1"/>
+    <col min="45" max="45" width="20.42578125" customWidth="1"/>
+    <col min="46" max="46" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="6">
+        <v>256</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7">
         <v>1.2</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1" s="2">
+      <c r="W1" s="7">
         <v>4.2</v>
       </c>
-      <c r="P1" s="2">
+      <c r="X1" s="7">
         <v>4.3</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="Y1" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>61046</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="2">
         <v>50</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
+        <f>D2+E2</f>
+        <v>55</v>
+      </c>
+      <c r="G2" s="19">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="19">
         <v>6</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="19">
+        <v>10</v>
+      </c>
+      <c r="J2" s="19">
+        <v>8</v>
+      </c>
+      <c r="K2" s="19">
+        <v>14</v>
+      </c>
+      <c r="L2" s="19">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>63</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>62</v>
+      </c>
+      <c r="P2" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2">
+        <v>12</v>
+      </c>
+      <c r="T2" s="2">
+        <v>30</v>
+      </c>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25">
+        <f>IF(Y2=0,0,IF(Y2&lt;=33,1,IF(Y2&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="25">
+        <f>IF(Z2=0,0,IF(Z2&lt;=33,1,IF(Z2&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="25">
+        <f>IF(AA2=0,0,IF(AA2&lt;=33,1,IF(AA2&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="18">
         <v>17</v>
       </c>
-      <c r="H2" s="2">
-        <v>63</v>
-      </c>
-      <c r="I2" s="2">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2">
-        <v>62</v>
-      </c>
-      <c r="K2" s="2">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Z2" s="2">
         <v>0</v>
       </c>
-      <c r="P2" s="2">
+      <c r="AA2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="8">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="AB2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U2" s="2">
+      <c r="AC2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE2" s="2">
         <v>4</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="2">
+      <c r="AG2" s="2">
         <v>0</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AI2" s="2">
         <v>0</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB2" s="2">
+      <c r="AK2" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL2" s="2">
         <v>1</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AO2" s="2">
         <v>6</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AT2" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>84924</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -27937,184 +28082,226 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="U3" s="2">
+      <c r="AC3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE3" s="2">
         <v>7</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AG3" s="2">
         <v>0</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AI3" s="2">
         <v>0</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB3" s="2">
+      <c r="AK3" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL3" s="2">
         <v>4</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AO3" s="2">
         <v>10</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AT3" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>374328</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="2">
         <v>50</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F5" si="0">D4+E4</f>
+        <v>59</v>
+      </c>
+      <c r="G4" s="19">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="19">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="19">
+        <v>9</v>
+      </c>
+      <c r="J4" s="19">
+        <v>11</v>
+      </c>
+      <c r="K4" s="19">
+        <v>13</v>
+      </c>
+      <c r="L4" s="19">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>79</v>
+      </c>
+      <c r="N4" s="2">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>11</v>
+      </c>
+      <c r="R4" s="2">
+        <v>20</v>
+      </c>
+      <c r="S4" s="2">
+        <v>12</v>
+      </c>
+      <c r="T4" s="2">
+        <v>22</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25">
+        <f>IF(Y4=0,0,IF(Y4&lt;=33,1,IF(Y4&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="25">
+        <f>IF(Z4=0,0,IF(Z4&lt;=33,1,IF(Z4&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="25">
+        <f>IF(AA4=0,0,IF(AA4&lt;=33,1,IF(AA4&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="18">
         <v>17</v>
       </c>
-      <c r="H4" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" s="2">
-        <v>44</v>
-      </c>
-      <c r="J4" s="2">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2">
-        <v>11</v>
-      </c>
-      <c r="M4" s="2">
-        <v>20</v>
-      </c>
-      <c r="N4" s="2">
-        <v>12</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="Z4" s="2">
         <v>33</v>
       </c>
-      <c r="P4" s="2">
+      <c r="AA4" s="7">
         <v>33</v>
       </c>
-      <c r="Q4" s="8">
-        <v>22</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U4" s="2">
+      <c r="AB4" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE4" s="2">
         <v>4</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AG4" s="2">
         <v>1</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AI4" s="2">
         <v>0</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB4" s="2">
+      <c r="AK4" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL4" s="2">
         <v>0</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AO4" s="2">
         <v>6</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AT4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>804260</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -28127,954 +28314,1220 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="AC5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE5" s="2">
         <v>4</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AG5" s="2">
         <v>1</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AI5" s="2">
         <v>0</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB5" s="2">
+      <c r="AK5" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL5" s="2">
         <v>4</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AO5" s="2">
         <v>10</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AT5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>144707</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="2">
         <v>50</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F13" si="1">D6+E6</f>
+        <v>58</v>
+      </c>
+      <c r="G6" s="19">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="19">
         <v>13</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="19">
+        <v>16</v>
+      </c>
+      <c r="J6" s="19">
+        <v>5</v>
+      </c>
+      <c r="K6" s="19">
+        <v>15</v>
+      </c>
+      <c r="L6" s="19">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2">
+        <v>94</v>
+      </c>
+      <c r="O6" s="2">
+        <v>69</v>
+      </c>
+      <c r="P6" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>23</v>
+      </c>
+      <c r="S6" s="2">
+        <v>15</v>
+      </c>
+      <c r="T6" s="2">
+        <v>41</v>
+      </c>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25">
+        <f>IF(Y6=0,0,IF(Y6&lt;=33,1,IF(Y6&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="W6" s="25">
+        <f>IF(Z6=0,0,IF(Z6&lt;=33,1,IF(Z6&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="X6" s="25">
+        <f>IF(AA6=0,0,IF(AA6&lt;=33,1,IF(AA6&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18">
         <v>83</v>
       </c>
-      <c r="H6" s="2">
+      <c r="Z6" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2">
-        <v>94</v>
-      </c>
-      <c r="J6" s="2">
-        <v>69</v>
-      </c>
-      <c r="K6" s="2">
-        <v>37</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="AK6" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT6" s="2">
         <v>5</v>
       </c>
-      <c r="M6" s="2">
-        <v>23</v>
-      </c>
-      <c r="N6" s="2">
-        <v>15</v>
-      </c>
-      <c r="O6" s="2">
-        <v>67</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>41</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="U6" s="2">
-        <v>5</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>10</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>865260</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="2">
         <v>50</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G7" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="19">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="I7" s="19">
+        <v>3</v>
+      </c>
+      <c r="J7" s="19">
+        <v>7</v>
+      </c>
+      <c r="K7" s="19">
+        <v>19</v>
+      </c>
+      <c r="L7" s="19">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
         <v>30</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>31</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>15</v>
-      </c>
-      <c r="K7" s="2">
-        <v>33</v>
-      </c>
-      <c r="L7" s="2">
-        <v>47</v>
-      </c>
-      <c r="M7" s="2">
-        <v>53</v>
-      </c>
-      <c r="N7" s="2">
-        <v>62</v>
-      </c>
-      <c r="O7" s="2">
-        <v>33</v>
       </c>
       <c r="P7" s="2">
         <v>33</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="2">
+        <v>47</v>
+      </c>
+      <c r="R7" s="2">
+        <v>53</v>
+      </c>
+      <c r="S7" s="2">
+        <v>62</v>
+      </c>
+      <c r="T7" s="2">
         <v>70</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="U7" s="25"/>
+      <c r="V7" s="25">
+        <f>IF(Y7=0,0,IF(Y7&lt;=33,1,IF(Y7&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="25">
+        <f>IF(Z7=0,0,IF(Z7&lt;=33,1,IF(Z7&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="25">
+        <f>IF(AA7=0,0,IF(AA7&lt;=33,1,IF(AA7&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="U7" s="2">
+      <c r="AD7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE7" s="2">
         <v>5</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AG7" s="2">
         <v>0</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AI7" s="2">
         <v>0</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB7" s="2">
+      <c r="AK7" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL7" s="2">
         <v>4</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AO7" s="2">
         <v>10</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AT7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>530476</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="2">
         <v>50</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>47</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="G8" s="19">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="19">
         <v>7</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="19">
+        <v>10</v>
+      </c>
+      <c r="J8" s="19">
+        <v>3</v>
+      </c>
+      <c r="K8" s="19">
         <v>17</v>
       </c>
-      <c r="H8" s="2">
+      <c r="L8" s="19">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2">
         <v>21</v>
       </c>
-      <c r="I8" s="2">
+      <c r="N8" s="2">
         <v>44</v>
       </c>
-      <c r="J8" s="2">
+      <c r="O8" s="2">
         <v>62</v>
       </c>
-      <c r="K8" s="2">
+      <c r="P8" s="2">
         <v>47</v>
       </c>
-      <c r="L8" s="2">
+      <c r="Q8" s="2">
         <v>58</v>
       </c>
-      <c r="M8" s="2">
+      <c r="R8" s="2">
         <v>53</v>
       </c>
-      <c r="N8" s="2">
+      <c r="S8" s="2">
         <v>62</v>
       </c>
-      <c r="O8" s="2">
+      <c r="T8" s="2">
+        <v>37</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25">
+        <f>IF(Y8=0,0,IF(Y8&lt;=33,1,IF(Y8&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W8" s="25">
+        <f>IF(Z8=0,0,IF(Z8&lt;=33,1,IF(Z8&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="25">
+        <f>IF(AA8=0,0,IF(AA8&lt;=33,1,IF(AA8&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="2">
         <v>33</v>
       </c>
-      <c r="P8" s="2">
+      <c r="AA8" s="7">
         <v>0</v>
       </c>
-      <c r="Q8" s="8">
-        <v>37</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="U8" s="2">
+      <c r="AB8" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE8" s="2">
         <v>6</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AG8" s="2">
         <v>1</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AI8" s="2">
         <v>0</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB8" s="2">
+      <c r="AK8" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL8" s="2">
         <v>1</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AO8" s="2">
         <v>10</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AT8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>942575</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="2">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>13</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G9" s="19">
         <v>5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="19">
         <v>6</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="19">
+        <v>11</v>
+      </c>
+      <c r="J9" s="19">
+        <v>7</v>
+      </c>
+      <c r="K9" s="19">
+        <v>20</v>
+      </c>
+      <c r="L9" s="19">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2">
+        <v>40</v>
+      </c>
+      <c r="N9" s="2">
+        <v>25</v>
+      </c>
+      <c r="O9" s="2">
+        <v>62</v>
+      </c>
+      <c r="P9" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>53</v>
+      </c>
+      <c r="R9" s="2">
+        <v>77</v>
+      </c>
+      <c r="S9" s="2">
+        <v>81</v>
+      </c>
+      <c r="T9" s="2">
+        <v>59</v>
+      </c>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
+        <f>IF(Y9=0,0,IF(Y9&lt;=33,1,IF(Y9&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="W9" s="25">
+        <f>IF(Z9=0,0,IF(Z9&lt;=33,1,IF(Z9&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X9" s="25">
+        <f>IF(AA9=0,0,IF(AA9&lt;=33,1,IF(AA9&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="Y9" s="18">
         <v>67</v>
       </c>
-      <c r="H9" s="2">
-        <v>40</v>
-      </c>
-      <c r="I9" s="2">
-        <v>25</v>
-      </c>
-      <c r="J9" s="2">
-        <v>62</v>
-      </c>
-      <c r="K9" s="2">
-        <v>46</v>
-      </c>
-      <c r="L9" s="2">
-        <v>53</v>
-      </c>
-      <c r="M9" s="2">
-        <v>77</v>
-      </c>
-      <c r="N9" s="2">
-        <v>81</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="Z9" s="2">
         <v>33</v>
       </c>
-      <c r="P9" s="2">
+      <c r="AA9" s="7">
         <v>67</v>
       </c>
-      <c r="Q9" s="8">
-        <v>59</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="AB9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U9" s="2">
+      <c r="AC9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE9" s="2">
         <v>3</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AG9" s="2">
         <v>0</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="AH9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AI9" s="2">
         <v>1</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB9" s="2">
+      <c r="AK9" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL9" s="2">
         <v>3</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AM9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AN9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AO9" s="2">
         <v>6</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AS9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AT9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>753307</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="2">
         <v>48</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="G10" s="19">
         <v>6</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="19">
+        <v>6</v>
+      </c>
+      <c r="I10" s="19">
+        <v>12</v>
+      </c>
+      <c r="J10" s="19">
+        <v>14</v>
+      </c>
+      <c r="K10" s="19">
+        <v>14</v>
+      </c>
+      <c r="L10" s="19">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>86</v>
+      </c>
+      <c r="N10" s="2">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>21</v>
+      </c>
+      <c r="R10" s="2">
+        <v>27</v>
+      </c>
+      <c r="S10" s="2">
+        <v>15</v>
+      </c>
+      <c r="T10" s="2">
+        <v>33</v>
+      </c>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25">
+        <f>IF(Y10=0,0,IF(Y10&lt;=33,1,IF(Y10&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W10" s="25">
+        <f>IF(Z10=0,0,IF(Z10&lt;=33,1,IF(Z10&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="X10" s="25">
+        <f>IF(AA10=0,0,IF(AA10&lt;=33,1,IF(AA10&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="18">
         <v>17</v>
       </c>
-      <c r="H10" s="2">
-        <v>86</v>
-      </c>
-      <c r="I10" s="2">
-        <v>31</v>
-      </c>
-      <c r="J10" s="2">
-        <v>54</v>
-      </c>
-      <c r="K10" s="2">
-        <v>27</v>
-      </c>
-      <c r="L10" s="2">
-        <v>21</v>
-      </c>
-      <c r="M10" s="2">
-        <v>27</v>
-      </c>
-      <c r="N10" s="2">
-        <v>15</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="Z10" s="2">
         <v>67</v>
       </c>
-      <c r="P10" s="2">
+      <c r="AA10" s="7">
         <v>33</v>
       </c>
-      <c r="Q10" s="8">
-        <v>33</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="AB10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U10" s="2">
+      <c r="AC10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE10" s="2">
         <v>3</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AG10" s="2">
         <v>1</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="AH10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AI10" s="2">
         <v>2</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AJ10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA10" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB10" s="2">
+      <c r="AK10" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL10" s="2">
         <v>4</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AM10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AN10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AO10" s="2">
         <v>6</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AP10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AQ10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AR10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AI10" s="1" t="s">
+      <c r="AS10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AT10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>821010</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="2">
         <v>50</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>15</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G11" s="19">
         <v>4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="19">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="I11" s="19">
+        <v>4</v>
+      </c>
+      <c r="J11" s="19">
+        <v>8</v>
+      </c>
+      <c r="K11" s="19">
+        <v>15</v>
+      </c>
+      <c r="L11" s="19">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2">
+        <v>40</v>
+      </c>
+      <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
-        <v>40</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="O11" s="2">
+        <v>67</v>
+      </c>
+      <c r="P11" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>11</v>
+      </c>
+      <c r="R11" s="2">
+        <v>12</v>
+      </c>
+      <c r="S11" s="2">
+        <v>8</v>
+      </c>
+      <c r="T11" s="2">
+        <v>44</v>
+      </c>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25">
+        <f>IF(Y11=0,0,IF(Y11&lt;=33,1,IF(Y11&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
-      <c r="J11" s="2">
-        <v>67</v>
-      </c>
-      <c r="K11" s="2">
-        <v>12</v>
-      </c>
-      <c r="L11" s="2">
-        <v>11</v>
-      </c>
-      <c r="M11" s="2">
-        <v>12</v>
-      </c>
-      <c r="N11" s="2">
-        <v>8</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="W11" s="25">
+        <f>IF(Z11=0,0,IF(Z11&lt;=33,1,IF(Z11&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
-      <c r="P11" s="2">
+      <c r="X11" s="25">
+        <f>IF(AA11=0,0,IF(AA11&lt;=33,1,IF(AA11&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
         <v>33</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="AB11" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U11" s="2">
+      <c r="AK11" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT11" s="2">
         <v>3</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W11" s="2">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>3</v>
-      </c>
     </row>
-    <row r="12" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>906861</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>22</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="G12" s="19">
         <v>5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="19">
         <v>10</v>
       </c>
-      <c r="G12" s="2">
+      <c r="I12" s="19">
+        <v>15</v>
+      </c>
+      <c r="J12" s="19">
+        <v>11</v>
+      </c>
+      <c r="K12" s="19">
+        <v>17</v>
+      </c>
+      <c r="L12" s="19">
+        <v>28</v>
+      </c>
+      <c r="M12" s="2">
+        <v>81</v>
+      </c>
+      <c r="N12" s="2">
+        <v>63</v>
+      </c>
+      <c r="O12" s="2">
+        <v>81</v>
+      </c>
+      <c r="P12" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>29</v>
+      </c>
+      <c r="R12" s="2">
+        <v>40</v>
+      </c>
+      <c r="S12" s="2">
+        <v>35</v>
+      </c>
+      <c r="T12" s="2">
+        <v>56</v>
+      </c>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25">
+        <f>IF(Y12=0,0,IF(Y12&lt;=33,1,IF(Y12&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="W12" s="25">
+        <f>IF(Z12=0,0,IF(Z12&lt;=33,1,IF(Z12&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="X12" s="25">
+        <f>IF(AA12=0,0,IF(AA12&lt;=33,1,IF(AA12&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="18">
         <v>100</v>
       </c>
-      <c r="H12" s="2">
-        <v>81</v>
-      </c>
-      <c r="I12" s="2">
-        <v>63</v>
-      </c>
-      <c r="J12" s="2">
-        <v>81</v>
-      </c>
-      <c r="K12" s="2">
-        <v>46</v>
-      </c>
-      <c r="L12" s="2">
-        <v>29</v>
-      </c>
-      <c r="M12" s="2">
-        <v>40</v>
-      </c>
-      <c r="N12" s="2">
-        <v>35</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="Z12" s="2">
         <v>83</v>
       </c>
-      <c r="P12" s="2">
+      <c r="AA12" s="7">
         <v>0</v>
       </c>
-      <c r="Q12" s="8">
-        <v>56</v>
-      </c>
-      <c r="R12" s="1" t="s">
+      <c r="AB12" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U12" s="2">
-        <v>4</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="2">
-        <v>1</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0</v>
-      </c>
       <c r="AC12" s="1" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="AE12" s="2">
         <v>4</v>
       </c>
       <c r="AF12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AP12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AQ12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AH12" s="1" t="s">
+      <c r="AR12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AI12" s="1" t="s">
+      <c r="AS12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AT12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>523118</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="19">
         <v>4</v>
       </c>
-      <c r="F13" s="2">
+      <c r="H13" s="19">
         <v>6</v>
       </c>
-      <c r="G13" s="2">
+      <c r="I13" s="19">
+        <v>10</v>
+      </c>
+      <c r="J13" s="19">
+        <v>6</v>
+      </c>
+      <c r="K13" s="19">
+        <v>19</v>
+      </c>
+      <c r="L13" s="19">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>37</v>
+      </c>
+      <c r="N13" s="2">
+        <v>63</v>
+      </c>
+      <c r="O13" s="2">
+        <v>42</v>
+      </c>
+      <c r="P13" s="2">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>66</v>
+      </c>
+      <c r="R13" s="2">
+        <v>77</v>
+      </c>
+      <c r="S13" s="2">
+        <v>85</v>
+      </c>
+      <c r="T13" s="2">
+        <v>52</v>
+      </c>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25">
+        <f>IF(Y13=0,0,IF(Y13&lt;=33,1,IF(Y13&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="2">
-        <v>37</v>
-      </c>
-      <c r="I13" s="2">
-        <v>63</v>
-      </c>
-      <c r="J13" s="2">
-        <v>42</v>
-      </c>
-      <c r="K13" s="2">
-        <v>54</v>
-      </c>
-      <c r="L13" s="2">
-        <v>66</v>
-      </c>
-      <c r="M13" s="2">
-        <v>77</v>
-      </c>
-      <c r="N13" s="2">
-        <v>85</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="W13" s="25">
+        <f>IF(Z13=0,0,IF(Z13&lt;=33,1,IF(Z13&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="25">
+        <f>IF(AA13=0,0,IF(AA13&lt;=33,1,IF(AA13&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
         <v>17</v>
       </c>
-      <c r="P13" s="2">
+      <c r="AA13" s="7">
         <v>33</v>
       </c>
-      <c r="Q13" s="8">
-        <v>52</v>
-      </c>
-      <c r="R13" s="1" t="s">
+      <c r="AB13" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U13" s="2">
+      <c r="AC13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE13" s="2">
         <v>4</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AG13" s="2">
         <v>1</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AI13" s="2">
         <v>0</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB13" s="2">
+      <c r="AK13" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL13" s="2">
         <v>3</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AM13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AN13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AO13" s="2">
         <v>10</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AP13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AQ13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AR13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AS13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AT13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>227159</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -29087,74 +29540,84 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U14" s="2">
+      <c r="AC14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE14" s="2">
         <v>3</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W14" s="2">
+      <c r="AG14" s="2">
         <v>0</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="AH14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="AI14" s="2">
         <v>1</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AJ14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB14" s="2">
+      <c r="AK14" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL14" s="2">
         <v>4</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AM14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AN14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AO14" s="2">
         <v>6</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="AP14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AQ14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AH14" s="1" t="s">
+      <c r="AR14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AI14" s="1" t="s">
+      <c r="AS14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AT14" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>993807</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -29167,294 +29630,368 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="1" t="s">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U15" s="2">
+      <c r="AC15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE15" s="2">
         <v>4</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="2">
+      <c r="AG15" s="2">
         <v>1</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="AH15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AI15" s="2">
         <v>0</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AJ15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB15" s="2">
+      <c r="AK15" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL15" s="2">
         <v>4</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AM15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AN15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AO15" s="2">
         <v>10</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AP15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AQ15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AR15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AI15" s="1" t="s">
+      <c r="AS15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AT15" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>739187</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16" s="2">
         <v>31</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:F17" si="2">D16+E16</f>
+        <v>35</v>
+      </c>
+      <c r="G16" s="19">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="H16" s="19">
         <v>6</v>
       </c>
-      <c r="G16" s="2">
+      <c r="I16" s="19">
+        <v>8</v>
+      </c>
+      <c r="J16" s="19">
+        <v>7</v>
+      </c>
+      <c r="K16" s="19">
+        <v>19</v>
+      </c>
+      <c r="L16" s="19">
+        <v>26</v>
+      </c>
+      <c r="M16" s="2">
+        <v>30</v>
+      </c>
+      <c r="N16" s="2">
+        <v>38</v>
+      </c>
+      <c r="O16" s="2">
+        <v>38</v>
+      </c>
+      <c r="P16" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>53</v>
+      </c>
+      <c r="R16" s="2">
+        <v>80</v>
+      </c>
+      <c r="S16" s="2">
+        <v>85</v>
+      </c>
+      <c r="T16" s="2">
+        <v>67</v>
+      </c>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25">
+        <f>IF(Y16=0,0,IF(Y16&lt;=33,1,IF(Y16&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="2">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2">
-        <v>38</v>
-      </c>
-      <c r="J16" s="2">
-        <v>38</v>
-      </c>
-      <c r="K16" s="2">
-        <v>40</v>
-      </c>
-      <c r="L16" s="2">
-        <v>53</v>
-      </c>
-      <c r="M16" s="2">
-        <v>80</v>
-      </c>
-      <c r="N16" s="2">
-        <v>85</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="W16" s="25">
+        <f>IF(Z16=0,0,IF(Z16&lt;=33,1,IF(Z16&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X16" s="25">
+        <f>IF(AA16=0,0,IF(AA16&lt;=33,1,IF(AA16&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
         <v>33</v>
       </c>
-      <c r="P16" s="2">
+      <c r="AA16" s="7">
         <v>100</v>
       </c>
-      <c r="Q16" s="8">
-        <v>67</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="AB16" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE16" s="2">
         <v>3</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W16" s="2">
+      <c r="AG16" s="2">
         <v>1</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="AH16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AI16" s="2">
         <v>0</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AJ16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AA16" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB16" s="2">
+      <c r="AK16" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL16" s="2">
         <v>2</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AM16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AN16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AO16" s="2">
         <v>6</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AP16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AH16" s="1" t="s">
+      <c r="AR16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI16" s="1" t="s">
+      <c r="AS16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AT16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>116420</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17" s="2">
         <v>50</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G17" s="19">
         <v>3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="H17" s="19">
         <v>7</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="19">
+        <v>10</v>
+      </c>
+      <c r="J17" s="19">
+        <v>12</v>
+      </c>
+      <c r="K17" s="19">
+        <v>16</v>
+      </c>
+      <c r="L17" s="19">
+        <v>28</v>
+      </c>
+      <c r="M17" s="2">
+        <v>81</v>
+      </c>
+      <c r="N17" s="2">
+        <v>69</v>
+      </c>
+      <c r="O17" s="2">
+        <v>35</v>
+      </c>
+      <c r="P17" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>13</v>
+      </c>
+      <c r="R17" s="2">
+        <v>27</v>
+      </c>
+      <c r="S17" s="2">
+        <v>23</v>
+      </c>
+      <c r="T17" s="2">
+        <v>33</v>
+      </c>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25">
+        <f>IF(Y17=0,0,IF(Y17&lt;=33,1,IF(Y17&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="W17" s="25">
+        <f>IF(Z17=0,0,IF(Z17&lt;=33,1,IF(Z17&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X17" s="25">
+        <f>IF(AA17=0,0,IF(AA17&lt;=33,1,IF(AA17&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="Y17" s="18">
         <v>50</v>
       </c>
-      <c r="H17" s="2">
-        <v>81</v>
-      </c>
-      <c r="I17" s="2">
-        <v>69</v>
-      </c>
-      <c r="J17" s="2">
-        <v>35</v>
-      </c>
-      <c r="K17" s="2">
-        <v>29</v>
-      </c>
-      <c r="L17" s="2">
-        <v>13</v>
-      </c>
-      <c r="M17" s="2">
-        <v>27</v>
-      </c>
-      <c r="N17" s="2">
-        <v>23</v>
-      </c>
-      <c r="O17" s="2">
+      <c r="Z17" s="2">
         <v>17</v>
       </c>
-      <c r="P17" s="2">
+      <c r="AA17" s="7">
         <v>100</v>
       </c>
-      <c r="Q17" s="8">
-        <v>33</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="U17" s="2">
+      <c r="AB17" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE17" s="2">
         <v>5</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W17" s="2">
+      <c r="AG17" s="2">
         <v>0</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="AH17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AI17" s="2">
         <v>0</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB17" s="2">
+      <c r="AK17" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL17" s="2">
         <v>4</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AM17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AN17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AO17" s="2">
         <v>6</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AP17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AQ17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="1" t="s">
+      <c r="AR17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AS17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AT17" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>879051</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -29467,514 +30004,652 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U18" s="2">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE18" s="2">
         <v>3</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W18" s="2">
+      <c r="AG18" s="2">
         <v>1</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="AH18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AI18" s="2">
         <v>1</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA18" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB18" s="2">
+      <c r="AK18" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL18" s="2">
         <v>3</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AM18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AN18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AO18" s="2">
         <v>4</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AP18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AQ18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH18" s="1" t="s">
+      <c r="AR18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AS18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AT18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>697106</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19" s="2">
         <v>8</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>10</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:F22" si="3">D19+E19</f>
+        <v>18</v>
+      </c>
+      <c r="G19" s="19">
         <v>3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="H19" s="19">
         <v>0</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="19">
+        <v>10</v>
+      </c>
+      <c r="K19" s="19">
+        <v>13</v>
+      </c>
+      <c r="L19" s="19">
+        <v>23</v>
+      </c>
+      <c r="M19" s="2">
+        <v>70</v>
+      </c>
+      <c r="N19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="2">
-        <v>70</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="O19" s="2">
+        <v>67</v>
+      </c>
+      <c r="P19" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>28</v>
+      </c>
+      <c r="R19" s="2">
+        <v>19</v>
+      </c>
+      <c r="S19" s="2">
+        <v>17</v>
+      </c>
+      <c r="T19" s="2">
+        <v>30</v>
+      </c>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25">
+        <f>IF(Y19=0,0,IF(Y19&lt;=33,1,IF(Y19&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
-      <c r="J19" s="2">
-        <v>67</v>
-      </c>
-      <c r="K19" s="2">
-        <v>26</v>
-      </c>
-      <c r="L19" s="2">
-        <v>28</v>
-      </c>
-      <c r="M19" s="2">
-        <v>19</v>
-      </c>
-      <c r="N19" s="2">
-        <v>17</v>
-      </c>
-      <c r="O19" s="2">
+      <c r="W19" s="25">
+        <f>IF(Z19=0,0,IF(Z19&lt;=33,1,IF(Z19&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="2">
+      <c r="X19" s="25">
+        <f>IF(AA19=0,0,IF(AA19&lt;=33,1,IF(AA19&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="8">
-        <v>30</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U19" s="2">
-        <v>2</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W19" s="2">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="18">
         <v>0</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA19" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>2</v>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="AE19" s="2">
         <v>2</v>
       </c>
       <c r="AF19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG19" s="1" t="s">
+      <c r="AQ19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AH19" s="1" t="s">
+      <c r="AR19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AS19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AT19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>930512</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20" s="2">
         <v>17</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>23</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="G20" s="19">
         <v>7</v>
       </c>
-      <c r="F20" s="2">
+      <c r="H20" s="19">
         <v>11</v>
       </c>
-      <c r="G20" s="2">
+      <c r="I20" s="19">
+        <v>18</v>
+      </c>
+      <c r="J20" s="19">
+        <v>12</v>
+      </c>
+      <c r="K20" s="19">
+        <v>16</v>
+      </c>
+      <c r="L20" s="19">
+        <v>28</v>
+      </c>
+      <c r="M20" s="2">
+        <v>86</v>
+      </c>
+      <c r="N20" s="2">
+        <v>69</v>
+      </c>
+      <c r="O20" s="2">
+        <v>85</v>
+      </c>
+      <c r="P20" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>21</v>
+      </c>
+      <c r="R20" s="2">
+        <v>21</v>
+      </c>
+      <c r="S20" s="2">
+        <v>15</v>
+      </c>
+      <c r="T20" s="2">
+        <v>33</v>
+      </c>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25">
+        <f>IF(Y20=0,0,IF(Y20&lt;=33,1,IF(Y20&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="W20" s="25">
+        <f>IF(Z20=0,0,IF(Z20&lt;=33,1,IF(Z20&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="X20" s="25">
+        <f>IF(AA20=0,0,IF(AA20&lt;=33,1,IF(AA20&lt;=67, 2, 3)))</f>
+        <v>2</v>
+      </c>
+      <c r="Y20" s="18">
         <v>83</v>
       </c>
-      <c r="H20" s="2">
-        <v>86</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="Z20" s="2">
+        <v>50</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>67</v>
+      </c>
+      <c r="AB20" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK20" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="2">
-        <v>85</v>
-      </c>
-      <c r="K20" s="2">
-        <v>44</v>
-      </c>
-      <c r="L20" s="2">
-        <v>21</v>
-      </c>
-      <c r="M20" s="2">
-        <v>21</v>
-      </c>
-      <c r="N20" s="2">
-        <v>15</v>
-      </c>
-      <c r="O20" s="2">
-        <v>50</v>
-      </c>
-      <c r="P20" s="2">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>33</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U20" s="2">
-        <v>2</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W20" s="2">
+      <c r="AR20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT20" s="2">
         <v>1</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA20" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ20" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="21" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>591218</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21" s="2">
         <v>50</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>8</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="G21" s="19">
         <v>6</v>
       </c>
-      <c r="F21" s="2">
+      <c r="H21" s="19">
         <v>0</v>
       </c>
-      <c r="G21" s="2">
+      <c r="I21" s="19">
+        <v>6</v>
+      </c>
+      <c r="J21" s="19">
+        <v>14</v>
+      </c>
+      <c r="K21" s="19">
+        <v>17</v>
+      </c>
+      <c r="L21" s="19">
+        <v>31</v>
+      </c>
+      <c r="M21" s="2">
+        <v>88</v>
+      </c>
+      <c r="N21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
-        <v>88</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="O21" s="2">
+        <v>100</v>
+      </c>
+      <c r="P21" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>22</v>
+      </c>
+      <c r="R21" s="2">
+        <v>8</v>
+      </c>
+      <c r="S21" s="2">
+        <v>8</v>
+      </c>
+      <c r="T21" s="2">
+        <v>52</v>
+      </c>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25">
+        <f>IF(Y21=0,0,IF(Y21&lt;=33,1,IF(Y21&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
-      <c r="J21" s="2">
-        <v>100</v>
-      </c>
-      <c r="K21" s="2">
-        <v>19</v>
-      </c>
-      <c r="L21" s="2">
-        <v>22</v>
-      </c>
-      <c r="M21" s="2">
-        <v>8</v>
-      </c>
-      <c r="N21" s="2">
-        <v>8</v>
-      </c>
-      <c r="O21" s="2">
+      <c r="W21" s="25">
+        <f>IF(Z21=0,0,IF(Z21&lt;=33,1,IF(Z21&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
-      <c r="P21" s="2">
+      <c r="X21" s="25">
+        <f>IF(AA21=0,0,IF(AA21&lt;=33,1,IF(AA21&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
         <v>33</v>
       </c>
-      <c r="Q21" s="8">
-        <v>52</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="AB21" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE21" s="2">
         <v>4</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W21" s="2">
+      <c r="AG21" s="2">
         <v>1</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="AH21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="AI21" s="2">
         <v>0</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA21" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB21" s="2">
+      <c r="AK21" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL21" s="2">
         <v>1</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AN21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AO21" s="2">
         <v>5</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AP21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AR21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AS21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AT21" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>932101</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="7">
+      <c r="D22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G22" s="19">
         <v>4</v>
       </c>
-      <c r="F22" s="2">
+      <c r="H22" s="19">
         <v>3</v>
       </c>
-      <c r="G22" s="2">
+      <c r="I22" s="19">
+        <v>7</v>
+      </c>
+      <c r="J22" s="19">
+        <v>7</v>
+      </c>
+      <c r="K22" s="19">
+        <v>10</v>
+      </c>
+      <c r="L22" s="19">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>25</v>
+      </c>
+      <c r="O22" s="2">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>66</v>
+      </c>
+      <c r="R22" s="2">
+        <v>86</v>
+      </c>
+      <c r="S22" s="2">
+        <v>85</v>
+      </c>
+      <c r="T22" s="2">
+        <v>52</v>
+      </c>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25">
+        <f>IF(Y22=0,0,IF(Y22&lt;=33,1,IF(Y22&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="25">
+        <f>IF(Z22=0,0,IF(Z22&lt;=33,1,IF(Z22&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="25">
+        <f>IF(AA22=0,0,IF(AA22&lt;=33,1,IF(AA22&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="Y22" s="18">
         <v>33</v>
       </c>
-      <c r="H22" s="2">
+      <c r="Z22" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG22" s="2">
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="AH22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK22" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="2">
-        <v>35</v>
-      </c>
-      <c r="K22" s="2">
-        <v>50</v>
-      </c>
-      <c r="L22" s="2">
-        <v>66</v>
-      </c>
-      <c r="M22" s="2">
-        <v>86</v>
-      </c>
-      <c r="N22" s="2">
-        <v>85</v>
-      </c>
-      <c r="O22" s="2">
-        <v>25</v>
-      </c>
-      <c r="P22" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>52</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U22" s="2">
+      <c r="AT22" s="2">
         <v>2</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="23" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>943391</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -29987,184 +30662,226 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="U23" s="2">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE23" s="2">
         <v>5</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W23" s="2">
+      <c r="AG23" s="2">
         <v>1</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="AH23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="AI23" s="2">
         <v>0</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AJ23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA23" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB23" s="2">
+      <c r="AK23" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL23" s="2">
         <v>3</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AM23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AN23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AO23" s="2">
         <v>6</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AP23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AQ23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH23" s="1" t="s">
+      <c r="AR23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AS23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AT23" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>103194</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="7">
         <v>1</v>
-      </c>
-      <c r="C24" s="7">
-        <v>5</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
       </c>
       <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ref="F24" si="4">D24+E24</f>
+        <v>10</v>
+      </c>
+      <c r="G24" s="19">
         <v>2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="H24" s="19">
         <v>7</v>
       </c>
-      <c r="G24" s="2">
+      <c r="I24" s="19">
+        <v>9</v>
+      </c>
+      <c r="J24" s="19">
+        <v>13</v>
+      </c>
+      <c r="K24" s="19">
+        <v>18</v>
+      </c>
+      <c r="L24" s="19">
+        <v>31</v>
+      </c>
+      <c r="M24" s="2">
+        <v>72</v>
+      </c>
+      <c r="N24" s="2">
+        <v>56</v>
+      </c>
+      <c r="O24" s="2">
+        <v>31</v>
+      </c>
+      <c r="P24" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>53</v>
+      </c>
+      <c r="R24" s="2">
+        <v>80</v>
+      </c>
+      <c r="S24" s="2">
+        <v>77</v>
+      </c>
+      <c r="T24" s="2">
+        <v>59</v>
+      </c>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25">
+        <f>IF(Y24=0,0,IF(Y24&lt;=33,1,IF(Y24&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W24" s="25">
+        <f>IF(Z24=0,0,IF(Z24&lt;=33,1,IF(Z24&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="25">
+        <f>IF(AA24=0,0,IF(AA24&lt;=33,1,IF(AA24&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="18">
         <v>17</v>
       </c>
-      <c r="H24" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" s="2">
-        <v>56</v>
-      </c>
-      <c r="J24" s="2">
-        <v>31</v>
-      </c>
-      <c r="K24" s="2">
-        <v>50</v>
-      </c>
-      <c r="L24" s="2">
-        <v>53</v>
-      </c>
-      <c r="M24" s="2">
-        <v>80</v>
-      </c>
-      <c r="N24" s="2">
-        <v>77</v>
-      </c>
-      <c r="O24" s="2">
+      <c r="Z24" s="2">
         <v>33</v>
       </c>
-      <c r="P24" s="2">
+      <c r="AA24" s="7">
         <v>0</v>
       </c>
-      <c r="Q24" s="8">
-        <v>59</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="AB24" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE24" s="2">
         <v>5</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W24" s="2">
+      <c r="AG24" s="2">
         <v>0</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="AH24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="AI24" s="2">
         <v>0</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AJ24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA24" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB24" s="2">
+      <c r="AK24" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL24" s="2">
         <v>0</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AM24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AN24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AO24" s="2">
         <v>4</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AP24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AQ24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AH24" s="1" t="s">
+      <c r="AR24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AS24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AT24" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>313895</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -30177,294 +30894,368 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="1" t="s">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U25" s="2">
+      <c r="AC25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE25" s="2">
         <v>3</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W25" s="2">
+      <c r="AG25" s="2">
         <v>0</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="AH25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="AI25" s="2">
         <v>0</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA25" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB25" s="2">
+      <c r="AK25" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL25" s="2">
         <v>4</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AM25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AN25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AO25" s="2">
         <v>10</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AP25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AQ25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AH25" s="1" t="s">
+      <c r="AR25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AS25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AT25" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>807290</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="C26" s="7">
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>7</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
+        <f t="shared" ref="F26:F27" si="5">D26+E26</f>
+        <v>9</v>
+      </c>
+      <c r="G26" s="19">
         <v>3</v>
       </c>
-      <c r="F26" s="2">
+      <c r="H26" s="19">
         <v>3</v>
       </c>
-      <c r="G26" s="2">
+      <c r="I26" s="19">
+        <v>6</v>
+      </c>
+      <c r="J26" s="19">
+        <v>14</v>
+      </c>
+      <c r="K26" s="19">
+        <v>16</v>
+      </c>
+      <c r="L26" s="19">
+        <v>30</v>
+      </c>
+      <c r="M26" s="2">
+        <v>74</v>
+      </c>
+      <c r="N26" s="2">
+        <v>31</v>
+      </c>
+      <c r="O26" s="2">
+        <v>38</v>
+      </c>
+      <c r="P26" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>11</v>
+      </c>
+      <c r="R26" s="2">
+        <v>3</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <v>56</v>
+      </c>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25">
+        <f>IF(Y26=0,0,IF(Y26&lt;=33,1,IF(Y26&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W26" s="25">
+        <f>IF(Z26=0,0,IF(Z26&lt;=33,1,IF(Z26&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="25">
+        <f>IF(AA26=0,0,IF(AA26&lt;=33,1,IF(AA26&lt;=67, 2, 3)))</f>
+        <v>3</v>
+      </c>
+      <c r="Y26" s="18">
         <v>17</v>
       </c>
-      <c r="H26" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" s="2">
-        <v>31</v>
-      </c>
-      <c r="J26" s="2">
-        <v>38</v>
-      </c>
-      <c r="K26" s="2">
-        <v>14</v>
-      </c>
-      <c r="L26" s="2">
-        <v>11</v>
-      </c>
-      <c r="M26" s="2">
-        <v>3</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="Z26" s="2">
         <v>0</v>
       </c>
-      <c r="O26" s="2">
+      <c r="AA26" s="7">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG26" s="2">
         <v>0</v>
       </c>
-      <c r="P26" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>56</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U26" s="2">
-        <v>2</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W26" s="2">
+      <c r="AH26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI26" s="2">
         <v>0</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AJ26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA26" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB26" s="2">
+      <c r="AK26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL26" s="2">
         <v>1</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AM26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AN26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AO26" s="2">
         <v>6</v>
       </c>
-      <c r="AF26" s="1" t="s">
+      <c r="AP26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AG26" s="1" t="s">
+      <c r="AQ26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AH26" s="1" t="s">
+      <c r="AR26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AI26" s="1" t="s">
+      <c r="AS26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AT26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>690179</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27" s="2">
         <v>50</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>5</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="G27" s="19">
         <v>3</v>
       </c>
-      <c r="F27" s="2">
+      <c r="H27" s="19">
         <v>8</v>
       </c>
-      <c r="G27" s="2">
+      <c r="I27" s="19">
+        <v>11</v>
+      </c>
+      <c r="J27" s="19">
+        <v>13</v>
+      </c>
+      <c r="K27" s="19">
         <v>17</v>
       </c>
-      <c r="H27" s="2">
+      <c r="L27" s="19">
+        <v>30</v>
+      </c>
+      <c r="M27" s="2">
         <v>81</v>
       </c>
-      <c r="I27" s="2">
+      <c r="N27" s="2">
         <v>56</v>
       </c>
-      <c r="J27" s="2">
+      <c r="O27" s="2">
         <v>46</v>
       </c>
-      <c r="K27" s="2">
+      <c r="P27" s="2">
         <v>30</v>
       </c>
-      <c r="L27" s="2">
+      <c r="Q27" s="2">
         <v>16</v>
       </c>
-      <c r="M27" s="2">
+      <c r="R27" s="2">
         <v>27</v>
       </c>
-      <c r="N27" s="2">
+      <c r="S27" s="2">
         <v>15</v>
       </c>
-      <c r="O27" s="2">
+      <c r="T27" s="2">
+        <v>44</v>
+      </c>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25">
+        <f>IF(Y27=0,0,IF(Y27&lt;=33,1,IF(Y27&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W27" s="25">
+        <f>IF(Z27=0,0,IF(Z27&lt;=33,1,IF(Z27&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X27" s="25">
+        <f>IF(AA27=0,0,IF(AA27&lt;=33,1,IF(AA27&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="18">
+        <v>17</v>
+      </c>
+      <c r="Z27" s="2">
         <v>33</v>
       </c>
-      <c r="P27" s="2">
+      <c r="AA27" s="7">
         <v>33</v>
       </c>
-      <c r="Q27" s="8">
-        <v>44</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U27" s="2">
+      <c r="AB27" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE27" s="2">
         <v>2</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="AF27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W27" s="2">
+      <c r="AG27" s="2">
         <v>1</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="AH27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="AI27" s="2">
         <v>0</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AJ27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA27" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB27" s="2">
+      <c r="AK27" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL27" s="2">
         <v>0</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AM27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD27" s="1" t="s">
+      <c r="AN27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AO27" s="2">
         <v>4</v>
       </c>
-      <c r="AF27" s="1" t="s">
+      <c r="AP27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AG27" s="1" t="s">
+      <c r="AQ27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AH27" s="1" t="s">
+      <c r="AR27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AI27" s="1" t="s">
+      <c r="AS27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AT27" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>350452</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -30477,74 +31268,84 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U28" s="2">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE28" s="2">
         <v>3</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="AF28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W28" s="2">
+      <c r="AG28" s="2">
         <v>1</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="AH28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="AI28" s="2">
         <v>0</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AJ28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA28" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB28" s="2">
+      <c r="AK28" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL28" s="2">
         <v>0</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AM28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD28" s="1" t="s">
+      <c r="AN28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AO28" s="2">
         <v>6</v>
       </c>
-      <c r="AF28" s="1" t="s">
+      <c r="AP28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AG28" s="1" t="s">
+      <c r="AQ28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AH28" s="1" t="s">
+      <c r="AR28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AI28" s="1" t="s">
+      <c r="AS28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AJ28" s="2">
+      <c r="AT28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>555741</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="7">
         <v>1</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -30557,68 +31358,78 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U29" s="2">
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE29" s="2">
         <v>2</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="AF29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W29" s="2">
+      <c r="AG29" s="2">
         <v>1</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="AH29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="AI29" s="2">
         <v>2</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AJ29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA29" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB29" s="2">
+      <c r="AK29" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL29" s="2">
         <v>3</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AM29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AD29" s="1" t="s">
+      <c r="AN29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AO29" s="2">
         <v>4</v>
       </c>
-      <c r="AF29" s="1" t="s">
+      <c r="AP29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AG29" s="1" t="s">
+      <c r="AQ29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AH29" s="1" t="s">
+      <c r="AR29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AI29" s="1" t="s">
+      <c r="AS29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AJ29" s="2">
+      <c r="AT29" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ29">
-    <sortCondition descending="1" ref="B2:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT29">
+    <sortCondition descending="1" ref="C2:C29"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -30645,7 +31456,7 @@
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -30676,8 +31487,8 @@
       <c r="I1" s="4">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>227</v>
+      <c r="J1" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
@@ -30686,24 +31497,24 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
         <v>220</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" t="s">
-        <v>222</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -30712,21 +31523,21 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" t="s">
         <v>220</v>
-      </c>
-      <c r="G3" t="s">
-        <v>222</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
@@ -30735,21 +31546,21 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="16" t="s">
-        <v>219</v>
+      <c r="J4" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -30758,21 +31569,21 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" t="s">
         <v>220</v>
-      </c>
-      <c r="G5" t="s">
-        <v>222</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -30782,12 +31593,12 @@
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="16" t="s">
-        <v>219</v>
+      <c r="J6" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -30796,19 +31607,19 @@
       </c>
       <c r="B7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -30817,21 +31628,21 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" t="s">
         <v>220</v>
-      </c>
-      <c r="G8" t="s">
-        <v>222</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -30841,18 +31652,18 @@
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" t="s">
         <v>220</v>
-      </c>
-      <c r="F9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" t="s">
-        <v>222</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="16" t="s">
-        <v>219</v>
+      <c r="J9" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -30862,14 +31673,14 @@
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="16" t="s">
-        <v>219</v>
+      <c r="J10" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
@@ -30878,21 +31689,21 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -30901,26 +31712,26 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>220</v>
-      </c>
-      <c r="F12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" t="s">
-        <v>222</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -30929,13 +31740,13 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="16" t="s">
-        <v>219</v>
+      <c r="J13" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -30944,21 +31755,21 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" t="s">
         <v>220</v>
-      </c>
-      <c r="G14" t="s">
-        <v>222</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -30967,18 +31778,18 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="16" t="s">
-        <v>219</v>
+      <c r="J15" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -30987,18 +31798,18 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D16" s="1"/>
       <c r="G16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="16" t="s">
-        <v>219</v>
+      <c r="J16" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -31008,16 +31819,16 @@
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="G17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -31026,20 +31837,20 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -31047,18 +31858,18 @@
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D19" s="1"/>
       <c r="G19" t="s">
+        <v>220</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="16" t="s">
-        <v>219</v>
+      <c r="J19" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -31067,18 +31878,18 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1"/>
       <c r="G20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="16" t="s">
-        <v>219</v>
+      <c r="J20" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -31086,13 +31897,13 @@
         <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="16" t="s">
-        <v>219</v>
+      <c r="J21" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -31101,16 +31912,16 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1"/>
       <c r="G22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="16" t="s">
-        <v>219</v>
+      <c r="J22" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -31120,17 +31931,17 @@
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
         <v>220</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -31139,21 +31950,21 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
         <v>220</v>
-      </c>
-      <c r="G24" t="s">
-        <v>222</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -31163,17 +31974,17 @@
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
         <v>220</v>
-      </c>
-      <c r="G25" t="s">
-        <v>222</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -31182,18 +31993,18 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="1"/>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
@@ -31202,24 +32013,24 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
         <v>220</v>
-      </c>
-      <c r="F27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" t="s">
-        <v>222</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -31228,21 +32039,21 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
         <v>220</v>
-      </c>
-      <c r="G28" t="s">
-        <v>222</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
@@ -31251,351 +32062,351 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D29" s="1"/>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J71" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J72" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J73" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J74" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J75" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J76" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J77" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J78" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J79" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J80" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J81" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J82" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J83" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J84" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J85" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J86" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J87" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J88" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J89" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J90" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J91" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J92" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J93" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J94" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J95" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -31607,7 +32418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14E5761-F161-4F5D-8602-A3BCB3DB1758}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
@@ -31622,28 +32433,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>158</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>159</v>
@@ -31664,13 +32475,13 @@
         <v>164</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>165</v>
@@ -31681,7 +32492,7 @@
         <v>61046</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -31740,9 +32551,9 @@
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="W2" s="17">
+        <v>252</v>
+      </c>
+      <c r="W2" s="16">
         <f>ROUND(SUM(T2:T7)/16/6, 2)</f>
         <v>2.82</v>
       </c>
@@ -31752,7 +32563,7 @@
         <v>84924</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -31811,9 +32622,9 @@
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="W3" s="17">
+        <v>253</v>
+      </c>
+      <c r="W3" s="16">
         <f>ROUND(SUM(T8:T11)/16/4, 2)</f>
         <v>2.42</v>
       </c>
@@ -31823,7 +32634,7 @@
         <v>374328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -31882,7 +32693,7 @@
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W4">
         <f>ROUND(SUM(T12:T18)/16/7, 2)</f>
@@ -31894,7 +32705,7 @@
         <v>586798</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -31953,7 +32764,7 @@
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W5">
         <v>1.84</v>
@@ -31964,7 +32775,7 @@
         <v>144707</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -32029,7 +32840,7 @@
         <v>865260</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -32094,7 +32905,7 @@
         <v>942575</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -32159,7 +32970,7 @@
         <v>753307</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -32224,7 +33035,7 @@
         <v>906861</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -32289,7 +33100,7 @@
         <v>993807</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -32354,7 +33165,7 @@
         <v>739187</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -32419,7 +33230,7 @@
         <v>116420</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -32484,7 +33295,7 @@
         <v>930512</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -32549,7 +33360,7 @@
         <v>932101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -32614,7 +33425,7 @@
         <v>103194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -32679,7 +33490,7 @@
         <v>807290</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -32744,7 +33555,7 @@
         <v>690179</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -32873,18 +33684,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
     </row>
@@ -32892,7 +33703,7 @@
       <c r="A5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -32900,7 +33711,7 @@
       <c r="A6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -32908,7 +33719,7 @@
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
     </row>
@@ -32916,7 +33727,7 @@
       <c r="A8" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
     </row>
@@ -32924,7 +33735,7 @@
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -32932,71 +33743,71 @@
       <c r="A10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="10">
+        <v>175</v>
+      </c>
+      <c r="B11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="10">
+        <v>174</v>
+      </c>
+      <c r="B12" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="10">
+        <v>172</v>
+      </c>
+      <c r="B13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="10">
+        <v>173</v>
+      </c>
+      <c r="B14" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="10">
+        <v>177</v>
+      </c>
+      <c r="B15" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="10">
+        <v>170</v>
+      </c>
+      <c r="B16" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="10">
+        <v>176</v>
+      </c>
+      <c r="B17" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="10">
+        <v>171</v>
+      </c>
+      <c r="B18" s="9">
         <v>1</v>
       </c>
     </row>
@@ -33021,26 +33832,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>182</v>
+      <c r="A3" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="10">
+        <v>182</v>
+      </c>
+      <c r="B4" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="10">
+        <v>179</v>
+      </c>
+      <c r="B5" s="9">
         <v>18</v>
       </c>
     </row>
@@ -33065,58 +33876,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="10">
+        <v>186</v>
+      </c>
+      <c r="B4" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="10">
+        <v>188</v>
+      </c>
+      <c r="B5" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="10">
+        <v>184</v>
+      </c>
+      <c r="B6" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="10">
+        <v>187</v>
+      </c>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="10">
+        <v>189</v>
+      </c>
+      <c r="B8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="10">
+        <v>185</v>
+      </c>
+      <c r="B9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -33141,18 +33952,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>10</v>
       </c>
     </row>
@@ -33160,7 +33971,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>18</v>
       </c>
     </row>
@@ -33185,34 +33996,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="10">
+        <v>192</v>
+      </c>
+      <c r="B4" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="10">
+        <v>193</v>
+      </c>
+      <c r="B5" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="10">
+        <v>194</v>
+      </c>
+      <c r="B6" s="9">
         <v>2</v>
       </c>
     </row>
@@ -33237,50 +34048,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="10">
+        <v>198</v>
+      </c>
+      <c r="B4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="10">
+        <v>199</v>
+      </c>
+      <c r="B5" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="10">
+        <v>201</v>
+      </c>
+      <c r="B6" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="10">
+        <v>200</v>
+      </c>
+      <c r="B7" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="10">
+        <v>202</v>
+      </c>
+      <c r="B8" s="9">
         <v>8</v>
       </c>
     </row>
@@ -33305,50 +34116,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>205</v>
+      <c r="A3" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="10">
+        <v>196</v>
+      </c>
+      <c r="B4" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="10">
+        <v>206</v>
+      </c>
+      <c r="B5" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="10">
+        <v>207</v>
+      </c>
+      <c r="B6" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="10">
+        <v>205</v>
+      </c>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="10">
+        <v>204</v>
+      </c>
+      <c r="B8" s="9">
         <v>5</v>
       </c>
     </row>
@@ -33373,66 +34184,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="10">
+        <v>211</v>
+      </c>
+      <c r="B4" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" s="10">
+        <v>210</v>
+      </c>
+      <c r="B5" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="10">
+        <v>212</v>
+      </c>
+      <c r="B6" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="10">
+        <v>213</v>
+      </c>
+      <c r="B7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="10">
+        <v>214</v>
+      </c>
+      <c r="B8" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="10">
+        <v>215</v>
+      </c>
+      <c r="B9" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="10">
+        <v>216</v>
+      </c>
+      <c r="B10" s="9">
         <v>2</v>
       </c>
     </row>

--- a/data/using/Research Data - Demographics.xlsx
+++ b/data/using/Research Data - Demographics.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ross\Work\Japan\Drones\Code\systems_thinking_game_evolved\data\using\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ross.arnold\Documents\PhD\Code\systems_thinking_game_evolved\data\using\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AD16C4-2827-41E7-A64A-CA0F2C979929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1800" windowWidth="22740" windowHeight="12540" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1800" windowWidth="22740" windowHeight="12540" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="LearningStyles" sheetId="14" r:id="rId12"/>
     <sheet name="Self-Assessments" sheetId="16" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId14"/>
     <pivotCache cacheId="1" r:id="rId15"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -963,11 +962,20 @@
   <si>
     <t>STXR</t>
   </si>
+  <si>
+    <t>John McWilliams</t>
+  </si>
+  <si>
+    <t>Maria Gabriela M. Pinho</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1154,7 +1162,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1244,47 +1252,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1426,7 +1393,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D65A-45D9-8B58-E92FD219E964}"/>
             </c:ext>
@@ -1442,11 +1409,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="534513000"/>
-        <c:axId val="534513328"/>
+        <c:axId val="431884544"/>
+        <c:axId val="434856272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="534513000"/>
+        <c:axId val="431884544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534513328"/>
+        <c:crossAx val="434856272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1497,7 +1464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="534513328"/>
+        <c:axId val="434856272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534513000"/>
+        <c:crossAx val="431884544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,7 +1564,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1606,17 +1578,12 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1700,44 +1667,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1837,7 +1766,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6212-477C-A723-0DD0AC3DD870}"/>
             </c:ext>
@@ -1852,11 +1781,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="160"/>
-        <c:axId val="690307120"/>
-        <c:axId val="690308760"/>
+        <c:axId val="434859016"/>
+        <c:axId val="434859408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="690307120"/>
+        <c:axId val="434859016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +1825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="690308760"/>
+        <c:crossAx val="434859408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1904,7 +1833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="690308760"/>
+        <c:axId val="434859408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="690307120"/>
+        <c:crossAx val="434859016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2004,7 +1933,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2012,17 +1946,12 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2147,7 +2076,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-444C-AA6A-69B1116A17A9}"/>
             </c:ext>
@@ -2162,11 +2091,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="160"/>
-        <c:axId val="658623304"/>
-        <c:axId val="323428936"/>
+        <c:axId val="437011864"/>
+        <c:axId val="437009120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="658623304"/>
+        <c:axId val="437011864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323428936"/>
+        <c:crossAx val="437009120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2214,7 +2143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="323428936"/>
+        <c:axId val="437009120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2264,7 +2193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658623304"/>
+        <c:crossAx val="437011864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2320,7 +2249,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2404,44 +2333,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2583,7 +2474,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A5A-4395-9D59-DE1AC6B1F44C}"/>
             </c:ext>
@@ -2598,11 +2489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="530225296"/>
-        <c:axId val="530225624"/>
+        <c:axId val="434853136"/>
+        <c:axId val="434856664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="530225296"/>
+        <c:axId val="434853136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530225624"/>
+        <c:crossAx val="434856664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="530225624"/>
+        <c:axId val="434856664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530225296"/>
+        <c:crossAx val="434853136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2750,7 +2641,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2758,17 +2654,12 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2911,7 +2802,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2970,7 +2861,7 @@
           <c:showSerName val="1"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -3029,7 +2920,7 @@
           <c:showSerName val="1"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -3067,7 +2958,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
               </c:ext>
@@ -3087,7 +2978,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
               </c:ext>
@@ -3135,11 +3026,8 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3183,11 +3071,8 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3274,7 +3159,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
             </c:ext>
@@ -3334,7 +3219,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3342,17 +3232,12 @@
         <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3444,44 +3329,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3569,7 +3416,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9542-4341-A561-790830C29FEE}"/>
             </c:ext>
@@ -3584,11 +3431,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="160"/>
-        <c:axId val="529102592"/>
-        <c:axId val="529092424"/>
+        <c:axId val="434852744"/>
+        <c:axId val="434855880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="529102592"/>
+        <c:axId val="434852744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529092424"/>
+        <c:crossAx val="434855880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3636,7 +3483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="529092424"/>
+        <c:axId val="434855880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,7 +3531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529102592"/>
+        <c:crossAx val="434852744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3736,7 +3583,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3744,17 +3596,12 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3890,7 +3737,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -4002,7 +3849,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:dlblFieldTable/>
               <c15:showDataLabelsRange val="0"/>
@@ -4117,7 +3967,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:dlblFieldTable/>
               <c15:showDataLabelsRange val="0"/>
@@ -4158,7 +4011,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
               </c:ext>
@@ -4178,7 +4031,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
               </c:ext>
@@ -4279,13 +4132,13 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4383,13 +4236,13 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4477,7 +4330,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE6E-4392-A0CB-1BFC13F65CB4}"/>
             </c:ext>
@@ -4537,7 +4390,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4545,17 +4403,12 @@
         <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4647,44 +4500,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4754,7 +4569,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE10-43E5-B70A-28C676A75569}"/>
             </c:ext>
@@ -4769,11 +4584,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="536973128"/>
-        <c:axId val="536968864"/>
+        <c:axId val="434331080"/>
+        <c:axId val="434325984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536973128"/>
+        <c:axId val="434331080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4813,7 +4628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536968864"/>
+        <c:crossAx val="434325984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4821,7 +4636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536968864"/>
+        <c:axId val="434325984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4869,7 +4684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536973128"/>
+        <c:crossAx val="434331080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4921,7 +4736,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4929,17 +4749,12 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5027,47 +4842,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5149,7 +4923,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3255-4001-976D-2D079786C9E3}"/>
             </c:ext>
@@ -5164,11 +4938,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="536951152"/>
-        <c:axId val="536949840"/>
+        <c:axId val="434332648"/>
+        <c:axId val="434328728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536951152"/>
+        <c:axId val="434332648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5208,7 +4982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536949840"/>
+        <c:crossAx val="434328728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5216,7 +4990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536949840"/>
+        <c:axId val="434328728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5267,7 +5041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536951152"/>
+        <c:crossAx val="434332648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5316,7 +5090,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -5324,17 +5103,12 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5418,44 +5192,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5537,7 +5273,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F14B-4F17-8748-A11CB9568447}"/>
             </c:ext>
@@ -5552,11 +5288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="684453408"/>
-        <c:axId val="684452424"/>
+        <c:axId val="434333432"/>
+        <c:axId val="434327552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684453408"/>
+        <c:axId val="434333432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5596,7 +5332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684452424"/>
+        <c:crossAx val="434327552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5604,7 +5340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684452424"/>
+        <c:axId val="434327552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5652,7 +5388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684453408"/>
+        <c:crossAx val="434333432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5704,7 +5440,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -5712,17 +5453,12 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5826,47 +5562,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5960,7 +5655,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C35-4A98-B62A-5A3DCE9AEB5B}"/>
             </c:ext>
@@ -5975,11 +5670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="160"/>
-        <c:axId val="684426184"/>
-        <c:axId val="684434056"/>
+        <c:axId val="434328336"/>
+        <c:axId val="434330296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684426184"/>
+        <c:axId val="434328336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6019,7 +5714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684434056"/>
+        <c:crossAx val="434330296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6027,7 +5722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684434056"/>
+        <c:axId val="434330296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6078,7 +5773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684426184"/>
+        <c:crossAx val="434328336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6127,18 +5822,18 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -12060,7 +11755,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7089C74-A590-40A0-B5C7-8678FAEC807D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7089C74-A590-40A0-B5C7-8678FAEC807D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12101,7 +11796,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA4FB33-ECF0-404F-BA8D-D08535AC2B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDA4FB33-ECF0-404F-BA8D-D08535AC2B01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12142,7 +11837,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13BE4AD-7C1D-4F0D-89D1-512A98185D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E13BE4AD-7C1D-4F0D-89D1-512A98185D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12183,7 +11878,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB6D61F-6F58-416D-8C07-6D4C6AC76F8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FB6D61F-6F58-416D-8C07-6D4C6AC76F8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12224,7 +11919,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCB5CEC-CDB9-47CA-82EA-4239E895135A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECCB5CEC-CDB9-47CA-82EA-4239E895135A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12265,7 +11960,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1829FE-16EF-4743-BAE5-528C472AFF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A1829FE-16EF-4743-BAE5-528C472AFF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12306,7 +12001,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A6ACBF-905C-4FF2-A8D2-90D88FB5BD58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74A6ACBF-905C-4FF2-A8D2-90D88FB5BD58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12347,7 +12042,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C476A340-774F-484C-B57C-0DBB692E5447}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C476A340-774F-484C-B57C-0DBB692E5447}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12388,7 +12083,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491DD9A6-6849-4BF9-BBBB-21EE82FCF1FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{491DD9A6-6849-4BF9-BBBB-21EE82FCF1FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12429,7 +12124,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FE0486-BE96-416A-B3EE-8A12BB9FA130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1FE0486-BE96-416A-B3EE-8A12BB9FA130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12470,7 +12165,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E5F98D-4108-466F-AF20-E08627D4DF6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45E5F98D-4108-466F-AF20-E08627D4DF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12492,7 +12187,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.545536342594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{B312B17F-5D94-4EC4-BDD3-A08B176FBC6E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.545536342594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
@@ -12625,7 +12320,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.65485324074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="94" xr:uid="{E1C0158B-78E0-4E5B-8491-1D6EEF2425BC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.65485324074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="94">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J95" sheet="LearningStyles"/>
   </cacheSource>
@@ -12679,7 +12374,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.548378587962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{F61856C3-05F5-426A-A35F-312B676C6614}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.548378587962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
@@ -12812,7 +12507,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.558078819442" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{9438B4D4-FE19-4022-85B1-200B3584C0B2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.558078819442" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
@@ -12935,7 +12630,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.572364814812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{152F95DE-B692-4772-8C9F-AA859E8DC727}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.572364814812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
@@ -13068,7 +12763,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.581180092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{3B25D115-533A-4BB2-9303-2BD85FB00C8B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.581180092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
@@ -13191,7 +12886,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.588939814814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{49EDA24D-B9C1-44C4-B388-CFE7DC8DA01E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.588939814814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
@@ -13315,7 +13010,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.597976041667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{D4D55DC3-6933-4B15-ACC1-91591695F899}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.597976041667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
@@ -13441,7 +13136,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.60828252315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{7FB9062A-E7C5-4BB6-977A-C2CC5B5E1662}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.60828252315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
@@ -13570,7 +13265,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.637503703707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{269EF52C-8C92-4B98-898F-7698710BF030}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.637503703707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT29" sheet="Demographics"/>
   </cacheSource>
@@ -24203,7 +23898,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{274FFEB5-A0A6-4CCD-8D69-3132564276C3}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24542,7 +24237,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBFBC482-CE35-4909-BA52-81FDE3F2BD1B}" name="PivotTable45" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable45" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24685,7 +24380,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D1890A7-1B02-4E86-B0C5-0CFD786DD3F7}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25024,7 +24719,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A73A78-89FA-48C1-BA41-F7676CAF7343}" name="PivotTable19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25342,7 +25037,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{636448EE-B64B-4B98-8980-2BCE036364EE}" name="PivotTable32" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable32" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25652,7 +25347,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2919D8A-C3D6-4BDA-AE82-B3B2391BD27F}" name="PivotTable37" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable37" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25970,7 +25665,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F288E6E9-6F6A-4998-9089-843F2A2BD5DC}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26268,7 +25963,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7425AA38-723B-4816-8324-C2636460AF24}" name="PivotTable26" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable26" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26574,7 +26269,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E014D2BF-5156-4E85-96F0-A3A1C4874682}" name="PivotTable31" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable31" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26887,7 +26582,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5EB3A3A-2249-4AC0-AD53-ECDE4A8D26F6}" name="PivotTable36" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable36" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -27503,20 +27198,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63138B1B-4F71-4BCA-9A74-1CB22C0977BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -27524,7 +27219,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -27532,7 +27227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -27540,7 +27235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -27548,7 +27243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -27556,7 +27251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -27564,7 +27259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -27572,7 +27267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -27580,7 +27275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>168</v>
       </c>
@@ -27588,7 +27283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -27596,7 +27291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -27604,7 +27299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -27612,7 +27307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -27620,7 +27315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -27628,7 +27323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -27636,7 +27331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -27651,20 +27346,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C184AA-D5BD-422C-9B3F-381650EBD0C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>225</v>
       </c>
@@ -27672,7 +27367,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -27680,7 +27375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -27688,7 +27383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -27696,7 +27391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -27704,7 +27399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -27712,7 +27407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -27720,7 +27415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -27728,7 +27423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -27743,45 +27438,45 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="12" width="5.140625" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" customWidth="1"/>
-    <col min="15" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" customWidth="1"/>
-    <col min="18" max="24" width="4.28515625" customWidth="1"/>
-    <col min="25" max="27" width="5.7109375" customWidth="1"/>
-    <col min="28" max="28" width="20.7109375" style="24" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" customWidth="1"/>
-    <col min="31" max="32" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.71875" customWidth="1"/>
+    <col min="2" max="2" width="24.27734375" customWidth="1"/>
+    <col min="3" max="3" width="6.27734375" customWidth="1"/>
+    <col min="4" max="12" width="5.1640625" customWidth="1"/>
+    <col min="13" max="13" width="4.27734375" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" customWidth="1"/>
+    <col min="15" max="16" width="4.27734375" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" customWidth="1"/>
+    <col min="18" max="24" width="4.27734375" customWidth="1"/>
+    <col min="25" max="27" width="5.71875" customWidth="1"/>
+    <col min="28" max="28" width="20.71875" style="24" customWidth="1"/>
+    <col min="29" max="29" width="16.27734375" customWidth="1"/>
+    <col min="30" max="30" width="15.83203125" customWidth="1"/>
+    <col min="31" max="32" width="9.83203125" customWidth="1"/>
     <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="20.7109375" customWidth="1"/>
-    <col min="35" max="35" width="12.85546875" customWidth="1"/>
-    <col min="36" max="36" width="64.85546875" customWidth="1"/>
-    <col min="37" max="37" width="28.7109375" style="12" customWidth="1"/>
-    <col min="38" max="38" width="16.5703125" customWidth="1"/>
-    <col min="39" max="39" width="41.140625" customWidth="1"/>
-    <col min="40" max="40" width="30.5703125" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" customWidth="1"/>
+    <col min="34" max="34" width="20.71875" customWidth="1"/>
+    <col min="35" max="35" width="12.83203125" customWidth="1"/>
+    <col min="36" max="36" width="64.83203125" customWidth="1"/>
+    <col min="37" max="37" width="28.71875" style="12" customWidth="1"/>
+    <col min="38" max="38" width="16.5546875" customWidth="1"/>
+    <col min="39" max="39" width="41.1640625" customWidth="1"/>
+    <col min="40" max="40" width="30.5546875" customWidth="1"/>
+    <col min="41" max="41" width="15.27734375" customWidth="1"/>
     <col min="42" max="44" width="50" customWidth="1"/>
-    <col min="45" max="45" width="20.42578125" customWidth="1"/>
-    <col min="46" max="46" width="12.42578125" customWidth="1"/>
+    <col min="45" max="45" width="20.44140625" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -27919,7 +27614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>61046</v>
       </c>
@@ -28061,7 +27756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>84924</v>
       </c>
@@ -28151,7 +27846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>374328</v>
       </c>
@@ -28168,7 +27863,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F5" si="0">D4+E4</f>
+        <f t="shared" ref="F4" si="0">D4+E4</f>
         <v>59</v>
       </c>
       <c r="G4" s="19">
@@ -28293,15 +27988,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>804260</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="18">
+        <v>6</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -28383,7 +28082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>144707</v>
       </c>
@@ -28447,15 +28146,15 @@
       </c>
       <c r="U6" s="25"/>
       <c r="V6" s="25">
-        <f>IF(Y6=0,0,IF(Y6&lt;=33,1,IF(Y6&lt;=67, 2, 3)))</f>
+        <f t="shared" ref="V6:X13" si="2">IF(Y6=0,0,IF(Y6&lt;=33,1,IF(Y6&lt;=67, 2, 3)))</f>
         <v>3</v>
       </c>
       <c r="W6" s="25">
-        <f>IF(Z6=0,0,IF(Z6&lt;=33,1,IF(Z6&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X6" s="25">
-        <f>IF(AA6=0,0,IF(AA6&lt;=33,1,IF(AA6&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y6" s="18">
@@ -28525,7 +28224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>865260</v>
       </c>
@@ -28589,15 +28288,15 @@
       </c>
       <c r="U7" s="25"/>
       <c r="V7" s="25">
-        <f>IF(Y7=0,0,IF(Y7&lt;=33,1,IF(Y7&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W7" s="25">
-        <f>IF(Z7=0,0,IF(Z7&lt;=33,1,IF(Z7&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X7" s="25">
-        <f>IF(AA7=0,0,IF(AA7&lt;=33,1,IF(AA7&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y7" s="18">
@@ -28667,7 +28366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>530476</v>
       </c>
@@ -28731,15 +28430,15 @@
       </c>
       <c r="U8" s="25"/>
       <c r="V8" s="25">
-        <f>IF(Y8=0,0,IF(Y8&lt;=33,1,IF(Y8&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W8" s="25">
-        <f>IF(Z8=0,0,IF(Z8&lt;=33,1,IF(Z8&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X8" s="25">
-        <f>IF(AA8=0,0,IF(AA8&lt;=33,1,IF(AA8&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y8" s="18">
@@ -28809,7 +28508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>942575</v>
       </c>
@@ -28873,15 +28572,15 @@
       </c>
       <c r="U9" s="25"/>
       <c r="V9" s="25">
-        <f>IF(Y9=0,0,IF(Y9&lt;=33,1,IF(Y9&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W9" s="25">
-        <f>IF(Z9=0,0,IF(Z9&lt;=33,1,IF(Z9&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X9" s="25">
-        <f>IF(AA9=0,0,IF(AA9&lt;=33,1,IF(AA9&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y9" s="18">
@@ -28951,7 +28650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>753307</v>
       </c>
@@ -29015,15 +28714,15 @@
       </c>
       <c r="U10" s="25"/>
       <c r="V10" s="25">
-        <f>IF(Y10=0,0,IF(Y10&lt;=33,1,IF(Y10&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W10" s="25">
-        <f>IF(Z10=0,0,IF(Z10&lt;=33,1,IF(Z10&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X10" s="25">
-        <f>IF(AA10=0,0,IF(AA10&lt;=33,1,IF(AA10&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y10" s="18">
@@ -29093,7 +28792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>821010</v>
       </c>
@@ -29157,15 +28856,15 @@
       </c>
       <c r="U11" s="25"/>
       <c r="V11" s="25">
-        <f>IF(Y11=0,0,IF(Y11&lt;=33,1,IF(Y11&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="25">
-        <f>IF(Z11=0,0,IF(Z11&lt;=33,1,IF(Z11&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X11" s="25">
-        <f>IF(AA11=0,0,IF(AA11&lt;=33,1,IF(AA11&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y11" s="18">
@@ -29235,7 +28934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>906861</v>
       </c>
@@ -29299,15 +28998,15 @@
       </c>
       <c r="U12" s="25"/>
       <c r="V12" s="25">
-        <f>IF(Y12=0,0,IF(Y12&lt;=33,1,IF(Y12&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="W12" s="25">
-        <f>IF(Z12=0,0,IF(Z12&lt;=33,1,IF(Z12&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="X12" s="25">
-        <f>IF(AA12=0,0,IF(AA12&lt;=33,1,IF(AA12&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12" s="18">
@@ -29377,7 +29076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>523118</v>
       </c>
@@ -29441,15 +29140,15 @@
       </c>
       <c r="U13" s="25"/>
       <c r="V13" s="25">
-        <f>IF(Y13=0,0,IF(Y13&lt;=33,1,IF(Y13&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="25">
-        <f>IF(Z13=0,0,IF(Z13&lt;=33,1,IF(Z13&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X13" s="25">
-        <f>IF(AA13=0,0,IF(AA13&lt;=33,1,IF(AA13&lt;=67, 2, 3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y13" s="18">
@@ -29519,7 +29218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>227159</v>
       </c>
@@ -29527,7 +29226,9 @@
       <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18">
+        <v>50</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -29609,7 +29310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>993807</v>
       </c>
@@ -29699,7 +29400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>739187</v>
       </c>
@@ -29716,7 +29417,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16:F17" si="2">D16+E16</f>
+        <f t="shared" ref="F16:F17" si="3">D16+E16</f>
         <v>35</v>
       </c>
       <c r="G16" s="19">
@@ -29763,15 +29464,15 @@
       </c>
       <c r="U16" s="25"/>
       <c r="V16" s="25">
-        <f>IF(Y16=0,0,IF(Y16&lt;=33,1,IF(Y16&lt;=67, 2, 3)))</f>
+        <f t="shared" ref="V16:X17" si="4">IF(Y16=0,0,IF(Y16&lt;=33,1,IF(Y16&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
       <c r="W16" s="25">
-        <f>IF(Z16=0,0,IF(Z16&lt;=33,1,IF(Z16&lt;=67, 2, 3)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X16" s="25">
-        <f>IF(AA16=0,0,IF(AA16&lt;=33,1,IF(AA16&lt;=67, 2, 3)))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Y16" s="18">
@@ -29841,7 +29542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>116420</v>
       </c>
@@ -29858,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G17" s="19">
@@ -29905,15 +29606,15 @@
       </c>
       <c r="U17" s="25"/>
       <c r="V17" s="25">
-        <f>IF(Y17=0,0,IF(Y17&lt;=33,1,IF(Y17&lt;=67, 2, 3)))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W17" s="25">
-        <f>IF(Z17=0,0,IF(Z17&lt;=33,1,IF(Z17&lt;=67, 2, 3)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X17" s="25">
-        <f>IF(AA17=0,0,IF(AA17&lt;=33,1,IF(AA17&lt;=67, 2, 3)))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Y17" s="18">
@@ -29983,7 +29684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>879051</v>
       </c>
@@ -30073,7 +29774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>697106</v>
       </c>
@@ -30090,7 +29791,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ref="F19:F22" si="3">D19+E19</f>
+        <f t="shared" ref="F19:F22" si="5">D19+E19</f>
         <v>18</v>
       </c>
       <c r="G19" s="19">
@@ -30137,15 +29838,15 @@
       </c>
       <c r="U19" s="25"/>
       <c r="V19" s="25">
-        <f>IF(Y19=0,0,IF(Y19&lt;=33,1,IF(Y19&lt;=67, 2, 3)))</f>
+        <f t="shared" ref="V19:X22" si="6">IF(Y19=0,0,IF(Y19&lt;=33,1,IF(Y19&lt;=67, 2, 3)))</f>
         <v>0</v>
       </c>
       <c r="W19" s="25">
-        <f>IF(Z19=0,0,IF(Z19&lt;=33,1,IF(Z19&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X19" s="25">
-        <f>IF(AA19=0,0,IF(AA19&lt;=33,1,IF(AA19&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y19" s="18">
@@ -30215,7 +29916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>930512</v>
       </c>
@@ -30232,7 +29933,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="G20" s="19">
@@ -30279,15 +29980,15 @@
       </c>
       <c r="U20" s="25"/>
       <c r="V20" s="25">
-        <f>IF(Y20=0,0,IF(Y20&lt;=33,1,IF(Y20&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="W20" s="25">
-        <f>IF(Z20=0,0,IF(Z20&lt;=33,1,IF(Z20&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="X20" s="25">
-        <f>IF(AA20=0,0,IF(AA20&lt;=33,1,IF(AA20&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y20" s="18">
@@ -30357,7 +30058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>591218</v>
       </c>
@@ -30374,7 +30075,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="G21" s="19">
@@ -30421,15 +30122,15 @@
       </c>
       <c r="U21" s="25"/>
       <c r="V21" s="25">
-        <f>IF(Y21=0,0,IF(Y21&lt;=33,1,IF(Y21&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W21" s="25">
-        <f>IF(Z21=0,0,IF(Z21&lt;=33,1,IF(Z21&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X21" s="25">
-        <f>IF(AA21=0,0,IF(AA21&lt;=33,1,IF(AA21&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Y21" s="18">
@@ -30499,7 +30200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>932101</v>
       </c>
@@ -30516,7 +30217,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G22" s="19">
@@ -30563,15 +30264,15 @@
       </c>
       <c r="U22" s="25"/>
       <c r="V22" s="25">
-        <f>IF(Y22=0,0,IF(Y22&lt;=33,1,IF(Y22&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="W22" s="25">
-        <f>IF(Z22=0,0,IF(Z22&lt;=33,1,IF(Z22&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X22" s="25">
-        <f>IF(AA22=0,0,IF(AA22&lt;=33,1,IF(AA22&lt;=67, 2, 3)))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="Y22" s="18">
@@ -30641,15 +30342,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>943391</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -30731,7 +30436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>103194</v>
       </c>
@@ -30748,7 +30453,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" ref="F24" si="4">D24+E24</f>
+        <f t="shared" ref="F24" si="7">D24+E24</f>
         <v>10</v>
       </c>
       <c r="G24" s="19">
@@ -30873,15 +30578,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>313895</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -30963,7 +30672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>807290</v>
       </c>
@@ -30980,7 +30689,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ref="F26:F27" si="5">D26+E26</f>
+        <f t="shared" ref="F26:F27" si="8">D26+E26</f>
         <v>9</v>
       </c>
       <c r="G26" s="19">
@@ -31027,15 +30736,15 @@
       </c>
       <c r="U26" s="25"/>
       <c r="V26" s="25">
-        <f>IF(Y26=0,0,IF(Y26&lt;=33,1,IF(Y26&lt;=67, 2, 3)))</f>
+        <f t="shared" ref="V26:X27" si="9">IF(Y26=0,0,IF(Y26&lt;=33,1,IF(Y26&lt;=67, 2, 3)))</f>
         <v>1</v>
       </c>
       <c r="W26" s="25">
-        <f>IF(Z26=0,0,IF(Z26&lt;=33,1,IF(Z26&lt;=67, 2, 3)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X26" s="25">
-        <f>IF(AA26=0,0,IF(AA26&lt;=33,1,IF(AA26&lt;=67, 2, 3)))</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="Y26" s="18">
@@ -31105,7 +30814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>690179</v>
       </c>
@@ -31122,7 +30831,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="G27" s="19">
@@ -31169,15 +30878,15 @@
       </c>
       <c r="U27" s="25"/>
       <c r="V27" s="25">
-        <f>IF(Y27=0,0,IF(Y27&lt;=33,1,IF(Y27&lt;=67, 2, 3)))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W27" s="25">
-        <f>IF(Z27=0,0,IF(Z27&lt;=33,1,IF(Z27&lt;=67, 2, 3)))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X27" s="25">
-        <f>IF(AA27=0,0,IF(AA27&lt;=33,1,IF(AA27&lt;=67, 2, 3)))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Y27" s="18">
@@ -31247,7 +30956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>350452</v>
       </c>
@@ -31337,7 +31046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>555741</v>
       </c>
@@ -31428,7 +31137,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT29">
+  <sortState ref="A2:AT29">
     <sortCondition descending="1" ref="C2:C29"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31438,28 +31147,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C259F6-CCB0-4B73-A6F4-5DC69461E37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="64.71875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.71875" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -31491,7 +31200,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="86.1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -31517,7 +31226,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -31540,7 +31249,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -31563,7 +31272,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -31586,7 +31295,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -31601,7 +31310,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>146</v>
       </c>
@@ -31622,7 +31331,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -31645,7 +31354,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -31666,7 +31375,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -31683,7 +31392,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
@@ -31706,7 +31415,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="98.4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>101</v>
       </c>
@@ -31734,7 +31443,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -31749,7 +31458,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -31772,7 +31481,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>123</v>
       </c>
@@ -31792,7 +31501,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -31812,7 +31521,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -31831,7 +31540,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -31853,7 +31562,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -31872,7 +31581,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -31892,7 +31601,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -31906,7 +31615,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -31924,7 +31633,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
@@ -31944,7 +31653,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -31967,7 +31676,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>118</v>
       </c>
@@ -31987,7 +31696,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>127</v>
       </c>
@@ -32007,7 +31716,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="86.1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -32033,7 +31742,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -32056,7 +31765,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -32079,332 +31788,332 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J30" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J33" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J34" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J35" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J37" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J38" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J39" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J40" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J41" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J44" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J45" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J46" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J47" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J48" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J51" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J52" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J53" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J54" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J55" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J56" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J57" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J58" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J59" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J60" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J61" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J62" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J63" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J64" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J65" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J66" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J67" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J68" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J69" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J70" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J71" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J72" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J73" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J74" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J75" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J76" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J77" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J78" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J79" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J80" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J81" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J82" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J83" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J84" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J85" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J86" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J87" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J88" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J89" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="90" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J90" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J91" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J92" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J93" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J94" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J95" s="1" t="s">
         <v>221</v>
       </c>
@@ -32415,20 +32124,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14E5761-F161-4F5D-8602-A3BCB3DB1758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="4" max="19" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="4" max="19" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -32487,7 +32196,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>61046</v>
       </c>
@@ -32558,7 +32267,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>84924</v>
       </c>
@@ -32629,7 +32338,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>374328</v>
       </c>
@@ -32700,7 +32409,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>586798</v>
       </c>
@@ -32770,7 +32479,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>144707</v>
       </c>
@@ -32835,7 +32544,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>865260</v>
       </c>
@@ -32900,7 +32609,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>942575</v>
       </c>
@@ -32965,7 +32674,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>753307</v>
       </c>
@@ -33030,7 +32739,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>906861</v>
       </c>
@@ -33095,7 +32804,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>993807</v>
       </c>
@@ -33160,7 +32869,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>739187</v>
       </c>
@@ -33225,7 +32934,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>116420</v>
       </c>
@@ -33290,7 +32999,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>930512</v>
       </c>
@@ -33355,7 +33064,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>932101</v>
       </c>
@@ -33420,7 +33129,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>103194</v>
       </c>
@@ -33485,7 +33194,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>807290</v>
       </c>
@@ -33550,7 +33259,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>690179</v>
       </c>
@@ -33615,52 +33324,52 @@
       <c r="U18" s="1"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U19" s="1"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U20" s="1"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U21" s="1"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U22" s="1"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U23" s="1"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U24" s="1"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U25" s="1"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U26" s="1"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U27" s="1"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U28" s="1"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="U29" s="1"/>
       <c r="V29" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S18">
+  <sortState ref="A2:S18">
     <sortCondition descending="1" ref="C2:C18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33670,20 +33379,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F02FD7E-F6E7-486E-8B70-CD589972D38D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -33691,7 +33400,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -33699,7 +33408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -33707,7 +33416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -33715,7 +33424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -33723,7 +33432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -33731,7 +33440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -33739,7 +33448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -33747,7 +33456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -33755,7 +33464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -33763,7 +33472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -33771,7 +33480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -33779,7 +33488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>177</v>
       </c>
@@ -33787,7 +33496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -33795,7 +33504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -33803,7 +33512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>171</v>
       </c>
@@ -33818,20 +33527,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471BCF24-EC51-4DEE-9B67-E340310981F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.27734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>180</v>
       </c>
@@ -33839,7 +33548,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -33847,7 +33556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -33862,20 +33571,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696815B4-988C-405F-B034-4F09BCC11144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -33883,7 +33592,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -33891,7 +33600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -33899,7 +33608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -33907,7 +33616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -33915,7 +33624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -33923,7 +33632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -33938,20 +33647,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED2BEE0-7A4E-4294-9FA9-5A21DB3FD21C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.27734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -33959,7 +33668,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -33967,7 +33676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -33982,20 +33691,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9558925A-0753-4AFF-ABDC-94DD7F25704B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.71875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -34003,7 +33712,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -34011,7 +33720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -34019,7 +33728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -34034,20 +33743,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C67FDF6-74AC-45D6-A90B-D98A31E41591}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -34055,7 +33764,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -34063,7 +33772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -34071,7 +33780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -34079,7 +33788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -34087,7 +33796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>202</v>
       </c>
@@ -34102,20 +33811,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C55771-D7A1-4B0C-AE20-B5D45E77E4CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>203</v>
       </c>
@@ -34123,7 +33832,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -34131,7 +33840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -34139,7 +33848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -34147,7 +33856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -34155,7 +33864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -34170,20 +33879,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85C18B2-B04D-4F86-ABE3-A0916822308D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -34191,7 +33900,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -34199,7 +33908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -34207,7 +33916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -34215,7 +33924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -34223,7 +33932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -34231,7 +33940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -34239,7 +33948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>216</v>
       </c>

--- a/data/using/Research Data - Demographics.xlsx
+++ b/data/using/Research Data - Demographics.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="275">
   <si>
     <t>ID</t>
   </si>
@@ -57,16 +57,10 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Age Code</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
     <t>1: Male</t>
-  </si>
-  <si>
-    <t>Gender Code</t>
   </si>
   <si>
     <t>English</t>
@@ -75,13 +69,7 @@
     <t>0: Fluent</t>
   </si>
   <si>
-    <t>English Code</t>
-  </si>
-  <si>
     <t>2: Play computer games between 15 minutes and 1 hour a week</t>
-  </si>
-  <si>
-    <t>Gaming XP Code</t>
   </si>
   <si>
     <t>Learning Styles</t>
@@ -96,9 +84,6 @@
   </si>
   <si>
     <t>6: Master's degree</t>
-  </si>
-  <si>
-    <t>Education Code</t>
   </si>
   <si>
     <t>Study Areas</t>
@@ -123,9 +108,6 @@
   </si>
   <si>
     <t>2: 2 to 3 years</t>
-  </si>
-  <si>
-    <t>Career Code</t>
   </si>
   <si>
     <t>Finland</t>
@@ -971,6 +953,27 @@
   <si>
     <t>Nikhil</t>
   </si>
+  <si>
+    <t>AgeT</t>
+  </si>
+  <si>
+    <t>GenderT</t>
+  </si>
+  <si>
+    <t>EnglishT</t>
+  </si>
+  <si>
+    <t>Computer Gaming</t>
+  </si>
+  <si>
+    <t>EducationT</t>
+  </si>
+  <si>
+    <t>CareerT</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
 </sst>
 </file>
 
@@ -1409,11 +1412,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="431884544"/>
-        <c:axId val="434856272"/>
+        <c:axId val="370373024"/>
+        <c:axId val="370373408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="431884544"/>
+        <c:axId val="370373024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434856272"/>
+        <c:crossAx val="370373408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1464,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434856272"/>
+        <c:axId val="370373408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431884544"/>
+        <c:crossAx val="370373024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,11 +1784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="160"/>
-        <c:axId val="434859016"/>
-        <c:axId val="434859408"/>
+        <c:axId val="444478488"/>
+        <c:axId val="444479272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434859016"/>
+        <c:axId val="444478488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434859408"/>
+        <c:crossAx val="444479272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1833,7 +1836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434859408"/>
+        <c:axId val="444479272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434859016"/>
+        <c:crossAx val="444478488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,11 +2094,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="160"/>
-        <c:axId val="437011864"/>
-        <c:axId val="437009120"/>
+        <c:axId val="444478880"/>
+        <c:axId val="444476920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="437011864"/>
+        <c:axId val="444478880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,7 +2138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437009120"/>
+        <c:crossAx val="444476920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2143,7 +2146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437009120"/>
+        <c:axId val="444476920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2193,7 +2196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437011864"/>
+        <c:crossAx val="444478880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2489,11 +2492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="434853136"/>
-        <c:axId val="434856664"/>
+        <c:axId val="368202280"/>
+        <c:axId val="368202672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434853136"/>
+        <c:axId val="368202280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,7 +2536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434856664"/>
+        <c:crossAx val="368202672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2541,7 +2544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434856664"/>
+        <c:axId val="368202672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434853136"/>
+        <c:crossAx val="368202280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3431,11 +3434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="160"/>
-        <c:axId val="434852744"/>
-        <c:axId val="434855880"/>
+        <c:axId val="443813512"/>
+        <c:axId val="443817824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434852744"/>
+        <c:axId val="443813512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3475,7 +3478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434855880"/>
+        <c:crossAx val="443817824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3483,7 +3486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434855880"/>
+        <c:axId val="443817824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,7 +3534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434852744"/>
+        <c:crossAx val="443813512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4584,11 +4587,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="434331080"/>
-        <c:axId val="434325984"/>
+        <c:axId val="443817040"/>
+        <c:axId val="443820176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434331080"/>
+        <c:axId val="443817040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4628,7 +4631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434325984"/>
+        <c:crossAx val="443820176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4636,7 +4639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434325984"/>
+        <c:axId val="443820176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4684,7 +4687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434331080"/>
+        <c:crossAx val="443817040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4938,11 +4941,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="434332648"/>
-        <c:axId val="434328728"/>
+        <c:axId val="443820568"/>
+        <c:axId val="443815080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434332648"/>
+        <c:axId val="443820568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4982,7 +4985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434328728"/>
+        <c:crossAx val="443815080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4990,7 +4993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434328728"/>
+        <c:axId val="443815080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,7 +5044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434332648"/>
+        <c:crossAx val="443820568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5288,11 +5291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="434333432"/>
-        <c:axId val="434327552"/>
+        <c:axId val="444481624"/>
+        <c:axId val="444480840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434333432"/>
+        <c:axId val="444481624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5332,7 +5335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434327552"/>
+        <c:crossAx val="444480840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5340,7 +5343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434327552"/>
+        <c:axId val="444480840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5388,7 +5391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434333432"/>
+        <c:crossAx val="444481624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5670,11 +5673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="160"/>
-        <c:axId val="434328336"/>
-        <c:axId val="434330296"/>
+        <c:axId val="444477312"/>
+        <c:axId val="444477704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434328336"/>
+        <c:axId val="444477312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5714,7 +5717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434330296"/>
+        <c:crossAx val="444477704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5722,7 +5725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434330296"/>
+        <c:axId val="444477704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,7 +5776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434328336"/>
+        <c:crossAx val="444477312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27216,12 +27219,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -27229,7 +27232,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -27237,7 +27240,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -27245,7 +27248,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -27253,7 +27256,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -27261,7 +27264,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -27269,7 +27272,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -27277,7 +27280,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -27285,7 +27288,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B12" s="9">
         <v>11</v>
@@ -27293,7 +27296,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
@@ -27301,7 +27304,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -27309,7 +27312,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
@@ -27317,7 +27320,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -27325,7 +27328,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -27333,7 +27336,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B18" s="9">
         <v>3</v>
@@ -27361,15 +27364,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B4" s="9">
         <v>15</v>
@@ -27377,7 +27380,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B5" s="9">
         <v>10</v>
@@ -27385,7 +27388,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B6" s="9">
         <v>21</v>
@@ -27393,7 +27396,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B7" s="9">
         <v>9</v>
@@ -27401,7 +27404,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B8" s="9">
         <v>15</v>
@@ -27409,7 +27412,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B9" s="9">
         <v>3</v>
@@ -27417,7 +27420,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B10" s="9">
         <v>19</v>
@@ -27425,7 +27428,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -27443,7 +27446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -27481,61 +27484,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="U1" s="7"/>
       <c r="V1" s="7">
@@ -27548,70 +27551,70 @@
         <v>4.3</v>
       </c>
       <c r="Y1" s="20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AB1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AH1" s="3" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="AM1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="AS1" s="3" t="s">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -27619,7 +27622,7 @@
         <v>61046</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>
@@ -27699,58 +27702,58 @@
         <v>0</v>
       </c>
       <c r="AB2" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="AE2" s="2">
         <v>4</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="2">
         <v>0</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI2" s="2">
         <v>0</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL2" s="2">
         <v>1</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO2" s="2">
         <v>6</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AT2" s="2">
         <v>5</v>
@@ -27789,58 +27792,58 @@
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
       <c r="AB3" s="23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AE3" s="2">
         <v>7</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG3" s="2">
         <v>0</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI3" s="2">
         <v>0</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL3" s="2">
         <v>4</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO3" s="2">
         <v>10</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AT3" s="2">
         <v>7</v>
@@ -27851,7 +27854,7 @@
         <v>374328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -27931,58 +27934,58 @@
         <v>33</v>
       </c>
       <c r="AB4" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AE4" s="2">
         <v>4</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="2">
         <v>1</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI4" s="2">
         <v>0</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AL4" s="2">
         <v>0</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO4" s="2">
         <v>6</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AT4" s="2">
         <v>5</v>
@@ -27993,14 +27996,12 @@
         <v>804260</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="18">
-        <v>6</v>
-      </c>
+      <c r="D5" s="18"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -28025,58 +28026,58 @@
       <c r="Z5" s="18"/>
       <c r="AA5" s="18"/>
       <c r="AB5" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="AE5" s="2">
         <v>4</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="2">
         <v>1</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI5" s="2">
         <v>0</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL5" s="2">
         <v>4</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO5" s="2">
         <v>10</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AT5" s="2">
         <v>5</v>
@@ -28087,7 +28088,7 @@
         <v>144707</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -28167,58 +28168,58 @@
         <v>0</v>
       </c>
       <c r="AB6" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AE6" s="2">
         <v>5</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="2">
         <v>1</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI6" s="2">
         <v>0</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AL6" s="2">
         <v>3</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO6" s="2">
         <v>10</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AT6" s="2">
         <v>5</v>
@@ -28229,7 +28230,7 @@
         <v>865260</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -28309,58 +28310,58 @@
         <v>33</v>
       </c>
       <c r="AB7" s="23" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AE7" s="2">
         <v>5</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG7" s="2">
         <v>0</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI7" s="2">
         <v>0</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL7" s="2">
         <v>4</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO7" s="2">
         <v>10</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AT7" s="2">
         <v>6</v>
@@ -28371,7 +28372,7 @@
         <v>530476</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -28451,58 +28452,58 @@
         <v>0</v>
       </c>
       <c r="AB8" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AE8" s="2">
         <v>6</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" s="2">
         <v>1</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI8" s="2">
         <v>0</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL8" s="2">
         <v>1</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO8" s="2">
         <v>10</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AT8" s="2">
         <v>7</v>
@@ -28513,7 +28514,7 @@
         <v>942575</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -28593,58 +28594,58 @@
         <v>67</v>
       </c>
       <c r="AB9" s="23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AE9" s="2">
         <v>3</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG9" s="2">
         <v>0</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI9" s="2">
         <v>1</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AL9" s="2">
         <v>3</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO9" s="2">
         <v>6</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AT9" s="2">
         <v>3</v>
@@ -28655,7 +28656,7 @@
         <v>753307</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -28735,58 +28736,58 @@
         <v>33</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AE10" s="2">
         <v>3</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG10" s="2">
         <v>1</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AI10" s="2">
         <v>2</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL10" s="2">
         <v>4</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO10" s="2">
         <v>6</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AT10" s="2">
         <v>2</v>
@@ -28797,7 +28798,7 @@
         <v>821010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -28877,58 +28878,58 @@
         <v>33</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AE11" s="2">
         <v>3</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG11" s="2">
         <v>1</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI11" s="2">
         <v>0</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL11" s="2">
         <v>1</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AO11" s="2">
         <v>5</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AT11" s="2">
         <v>3</v>
@@ -28939,7 +28940,7 @@
         <v>906861</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -29019,58 +29020,58 @@
         <v>0</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AC12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="AE12" s="2">
         <v>4</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG12" s="2">
         <v>1</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI12" s="2">
         <v>0</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AL12" s="2">
         <v>0</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AO12" s="2">
         <v>4</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AT12" s="2">
         <v>4</v>
@@ -29081,7 +29082,7 @@
         <v>523118</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -29161,58 +29162,58 @@
         <v>33</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AC13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="AE13" s="2">
         <v>4</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG13" s="2">
         <v>1</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI13" s="2">
         <v>0</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AL13" s="2">
         <v>3</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO13" s="2">
         <v>10</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AT13" s="2">
         <v>3</v>
@@ -29253,58 +29254,58 @@
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
       <c r="AB14" s="23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AE14" s="2">
         <v>3</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG14" s="2">
         <v>0</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI14" s="2">
         <v>1</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL14" s="2">
         <v>4</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO14" s="2">
         <v>6</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AT14" s="2">
         <v>3</v>
@@ -29343,58 +29344,58 @@
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AC15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD15" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="AE15" s="2">
         <v>4</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG15" s="2">
         <v>1</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI15" s="2">
         <v>0</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL15" s="2">
         <v>4</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO15" s="2">
         <v>10</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AT15" s="2">
         <v>5</v>
@@ -29405,7 +29406,7 @@
         <v>739187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -29485,58 +29486,58 @@
         <v>100</v>
       </c>
       <c r="AB16" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AE16" s="2">
         <v>3</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG16" s="2">
         <v>1</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI16" s="2">
         <v>0</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AL16" s="2">
         <v>2</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO16" s="2">
         <v>6</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AT16" s="2">
         <v>2</v>
@@ -29547,7 +29548,7 @@
         <v>116420</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -29627,58 +29628,58 @@
         <v>100</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AE17" s="2">
         <v>5</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG17" s="2">
         <v>0</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI17" s="2">
         <v>0</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL17" s="2">
         <v>4</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO17" s="2">
         <v>6</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AT17" s="2">
         <v>6</v>
@@ -29717,58 +29718,58 @@
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
       <c r="AB18" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AE18" s="2">
         <v>3</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG18" s="2">
         <v>1</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI18" s="2">
         <v>1</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AL18" s="2">
         <v>3</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AO18" s="2">
         <v>4</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AT18" s="2">
         <v>2</v>
@@ -29779,7 +29780,7 @@
         <v>697106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -29859,58 +29860,58 @@
         <v>0</v>
       </c>
       <c r="AB19" s="23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AE19" s="2">
         <v>2</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG19" s="2">
         <v>1</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI19" s="2">
         <v>0</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AL19" s="2">
         <v>2</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AO19" s="2">
         <v>2</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AT19" s="2">
         <v>1</v>
@@ -29921,7 +29922,7 @@
         <v>930512</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -30001,58 +30002,58 @@
         <v>67</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AE20" s="2">
         <v>2</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG20" s="2">
         <v>1</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI20" s="2">
         <v>0</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AL20" s="2">
         <v>3</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AO20" s="2">
         <v>4</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AT20" s="2">
         <v>1</v>
@@ -30063,7 +30064,7 @@
         <v>591218</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -30143,58 +30144,58 @@
         <v>33</v>
       </c>
       <c r="AB21" s="23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AE21" s="2">
         <v>4</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG21" s="2">
         <v>1</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI21" s="2">
         <v>0</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL21" s="2">
         <v>1</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AO21" s="2">
         <v>5</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AT21" s="2">
         <v>6</v>
@@ -30205,7 +30206,7 @@
         <v>932101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -30285,58 +30286,58 @@
         <v>100</v>
       </c>
       <c r="AB22" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AE22" s="2">
         <v>2</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG22" s="2">
         <v>0</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI22" s="2">
         <v>0</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL22" s="2">
         <v>4</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AO22" s="2">
         <v>4</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AT22" s="2">
         <v>2</v>
@@ -30347,7 +30348,7 @@
         <v>943391</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -30379,58 +30380,58 @@
       <c r="Z23" s="18"/>
       <c r="AA23" s="18"/>
       <c r="AB23" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AC23" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="AD23" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AE23" s="2">
         <v>5</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG23" s="2">
         <v>1</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI23" s="2">
         <v>0</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AL23" s="2">
         <v>3</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO23" s="2">
         <v>6</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AT23" s="2">
         <v>6</v>
@@ -30441,7 +30442,7 @@
         <v>103194</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -30521,58 +30522,58 @@
         <v>0</v>
       </c>
       <c r="AB24" s="23" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AE24" s="2">
         <v>5</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG24" s="2">
         <v>0</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI24" s="2">
         <v>0</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AO24" s="2">
         <v>4</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AT24" s="2">
         <v>5</v>
@@ -30583,7 +30584,7 @@
         <v>313895</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -30615,58 +30616,58 @@
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
       <c r="AB25" s="23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AE25" s="2">
         <v>3</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG25" s="2">
         <v>0</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI25" s="2">
         <v>0</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL25" s="2">
         <v>4</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO25" s="2">
         <v>10</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AT25" s="2">
         <v>3</v>
@@ -30677,7 +30678,7 @@
         <v>807290</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -30757,58 +30758,58 @@
         <v>100</v>
       </c>
       <c r="AB26" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AE26" s="2">
         <v>2</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG26" s="2">
         <v>0</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI26" s="2">
         <v>0</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK26" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL26" s="2">
         <v>1</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO26" s="2">
         <v>6</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AT26" s="2">
         <v>1</v>
@@ -30819,7 +30820,7 @@
         <v>690179</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -30899,58 +30900,58 @@
         <v>33</v>
       </c>
       <c r="AB27" s="23" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AE27" s="2">
         <v>2</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG27" s="2">
         <v>1</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI27" s="2">
         <v>0</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AL27" s="2">
         <v>0</v>
       </c>
       <c r="AM27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN27" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AN27" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AO27" s="2">
         <v>4</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AT27" s="2">
         <v>2</v>
@@ -30989,58 +30990,58 @@
       <c r="Z28" s="18"/>
       <c r="AA28" s="18"/>
       <c r="AB28" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AE28" s="2">
         <v>3</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG28" s="2">
         <v>1</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI28" s="2">
         <v>0</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AK28" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO28" s="2">
         <v>6</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AT28" s="2">
         <v>1</v>
@@ -31079,58 +31080,58 @@
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
       <c r="AB29" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AE29" s="2">
         <v>2</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG29" s="2">
         <v>1</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AI29" s="2">
         <v>2</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK29" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AL29" s="2">
         <v>3</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AO29" s="2">
         <v>4</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AT29" s="2">
         <v>1</v>
@@ -31170,7 +31171,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4">
         <v>0</v>
@@ -31197,925 +31198,925 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="86.1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="98.4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D16" s="1"/>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="G17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D19" s="1"/>
       <c r="G19" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D20" s="1"/>
       <c r="G20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D22" s="1"/>
       <c r="G22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D26" s="1"/>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="86.1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D29" s="1"/>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J30" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J32" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J33" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J34" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J35" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J36" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J37" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J38" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J39" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J40" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J41" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J42" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J43" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J44" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J45" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J46" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J47" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J48" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J49" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J50" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J51" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J52" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J53" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J54" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J55" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J56" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J58" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J59" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J60" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J62" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J63" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J64" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J65" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J66" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J67" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J68" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J69" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J70" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J71" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J72" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J73" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J74" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J75" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J76" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J77" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J78" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J79" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J80" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J81" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J82" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J83" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J84" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J85" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J86" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J87" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J88" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J89" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J90" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J91" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J92" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J93" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J94" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="J95" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -32142,58 +32143,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
@@ -32201,7 +32202,7 @@
         <v>61046</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -32260,7 +32261,7 @@
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="W2" s="16">
         <f>ROUND(SUM(T2:T7)/16/6, 2)</f>
@@ -32272,7 +32273,7 @@
         <v>84924</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -32331,7 +32332,7 @@
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="W3" s="16">
         <f>ROUND(SUM(T8:T11)/16/4, 2)</f>
@@ -32343,7 +32344,7 @@
         <v>374328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -32402,7 +32403,7 @@
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="W4">
         <f>ROUND(SUM(T12:T18)/16/7, 2)</f>
@@ -32414,7 +32415,7 @@
         <v>586798</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -32473,7 +32474,7 @@
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="W5">
         <v>1.84</v>
@@ -32484,7 +32485,7 @@
         <v>144707</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -32549,7 +32550,7 @@
         <v>865260</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -32614,7 +32615,7 @@
         <v>942575</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -32679,7 +32680,7 @@
         <v>753307</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -32744,7 +32745,7 @@
         <v>906861</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -32809,7 +32810,7 @@
         <v>993807</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -32874,7 +32875,7 @@
         <v>739187</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -32939,7 +32940,7 @@
         <v>116420</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -33004,7 +33005,7 @@
         <v>930512</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -33069,7 +33070,7 @@
         <v>932101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -33134,7 +33135,7 @@
         <v>103194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -33199,7 +33200,7 @@
         <v>807290</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -33264,7 +33265,7 @@
         <v>690179</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -33397,12 +33398,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -33410,7 +33411,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -33418,7 +33419,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -33426,7 +33427,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
@@ -33434,7 +33435,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -33442,7 +33443,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -33450,7 +33451,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B10" s="9">
         <v>3</v>
@@ -33458,7 +33459,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -33466,7 +33467,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -33474,7 +33475,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
@@ -33482,7 +33483,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
@@ -33490,7 +33491,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
@@ -33498,7 +33499,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B16" s="9">
         <v>11</v>
@@ -33506,7 +33507,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -33514,7 +33515,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
@@ -33542,15 +33543,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B4" s="9">
         <v>10</v>
@@ -33558,7 +33559,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B5" s="9">
         <v>18</v>
@@ -33589,12 +33590,12 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B4" s="9">
         <v>6</v>
@@ -33602,7 +33603,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B5" s="9">
         <v>8</v>
@@ -33610,7 +33611,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B6" s="9">
         <v>7</v>
@@ -33618,7 +33619,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -33626,7 +33627,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -33634,7 +33635,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -33662,15 +33663,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9">
         <v>10</v>
@@ -33678,7 +33679,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9">
         <v>18</v>
@@ -33706,15 +33707,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9">
         <v>23</v>
@@ -33722,7 +33723,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
@@ -33730,7 +33731,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -33758,15 +33759,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -33774,7 +33775,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B5" s="9">
         <v>7</v>
@@ -33782,7 +33783,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -33790,7 +33791,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B7" s="9">
         <v>10</v>
@@ -33798,7 +33799,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B8" s="9">
         <v>8</v>
@@ -33826,15 +33827,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B4" s="9">
         <v>9</v>
@@ -33842,7 +33843,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B5" s="9">
         <v>7</v>
@@ -33850,7 +33851,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -33858,7 +33859,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -33866,7 +33867,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B8" s="9">
         <v>5</v>
@@ -33894,15 +33895,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B4" s="9">
         <v>5</v>
@@ -33910,7 +33911,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
@@ -33918,7 +33919,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B6" s="9">
         <v>5</v>
@@ -33926,7 +33927,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -33934,7 +33935,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B8" s="9">
         <v>6</v>
@@ -33942,7 +33943,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B9" s="9">
         <v>4</v>
@@ -33950,7 +33951,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
